--- a/scoring/bleu2_rouge2_eval_data.xlsx
+++ b/scoring/bleu2_rouge2_eval_data.xlsx
@@ -493,32 +493,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Năm 2023 ghi nhận kinh tế toàn cầu tiếp tục đối mặt với một loạt khó khăn, thách thức. Những khó khăn, thách thức này đều ảnh hưởng tới nền kinh tế Việt Nam. Theo đó, Việt Nam đã triển khai nhiều giải pháp nhằm tháo gỡ khó khăn, thúc đẩy tăng trưởng, giữ vững ổn định kinh tế vĩ mô.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Năm 2023 ghi nhận kinh tế toàn cầu tiếp tục đối mặt với một loạt khó khăn, thách thức ảnh hưởng tới nền kinh tế Việt Nam. Theo đó, Việt Nam đã triển khai nhiều giải pháp nhằm tháo gỡ khó khăn, thúc đẩy tăng trưởng, giữ vững ổn định kinh tế vĩ mô và các cân đối lớn của nền kinh tế.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10 sự kiện kinh tế xã hội 2023. Năm 2023 ghi nhận kinh tế toàn cầu tiếp tục đối mặt với một loạt khó khăn, thách thức. Những khó khăn, thách thức này đều ảnh hưởng tới nền kinh tế Việt Nam. Theo đó, Việt Nam đã triển khai nhiều giải pháp nhằm tháo gỡ khó khăn, thúc đẩy tăng trưởng, giữ vững ổn định kinh tế vĩ mô và các cân đối lớn của nền kinh tế.</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>❌ Xin lỗi, tôi không tìm thấy thông tin liên quan trong cơ sở dữ liệu để trả lời câu hỏi của bạn.</t>
+          <t>10 sự kiện kinh tế xã hội nổi bật năm 2023 bao gồm:
+1. Quản lý điều hành chính sách tài khóa mở rộng, hiệu quả.
+2. Doanh thu top 10 doanh nghiệp công nghệ số xuất sắc năm 2023 đạt hơn 7 tỷ USD.
+3. Lễ công bố và vinh danh top 10 doanh nghiệp công nghệ số xuất sắc Việt Nam 2023.
+4. 10 thị trường mới nổi được dự báo sẽ chứng kiến FDI tăng mạnh nhất trong năm nay.
+5. TOP 10 CÔNG TY SẼ TẠO ẢNH HƯỞNG NĂM 2024.
+6. Fubon Life Việt Nam tiếp tục nhận danh hiệu Rồng Vàng lần thứ 10.
+7. 10 công ty công nghệ định hình tương lai năm 2024.
+8. 10 startup AI đáng chú ý nhất năm 2023.
+9. Đại diện OPES - Tổng giám đốc Đặng Hoàng Tùng chia sẻ về mục tiêu của OPES trong năm 2024.
+10. Top 3 doanh nghiệp đạt Sáng kiến Việt Nam 2023 sẽ được công bố vào tháng 10/2023.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>['10 sự kiện nổi bật ngành tài chính năm 2023 . Trên cơ sở bình chọn của các đơn vị và các cơ quan báo chí ngành tài chính, ngày 27/12, Bộ Tài chính công bố 10 sự kiện nổi bật ngành tài chính năm 2023. Trong đó, nổi bật là Bộ Tài chính quản lý điều hành chính sách tài khóa mở rộng đạt hiệu quả, điểm sáng từ quản lý nợ công để tạo dư địa trong điều hành chính sách.... 1. Quản lý điều hành chính sách tài khóa mở rộng, hiệu quả.', 'Doanh thu top 10 doanh nghiệp công nghệ số xuất sắc năm 2023 đạt hơn 7 tỷ USD. Dù  trong giai đoạn khó khăn nhưng các doanh nghiệp công nghệ số Việt Nam vẫn có mức tăng trưởng ấn tượng, nhiều doanh nghiệp có tốc độ tăng trưởng từ 30-100%, đặc biệt có doanh nghiệp tăng trưởng 2.800%.... Lễ công bố và vinh danh top 10 doanh nghiệp công nghệ số xuất sắc Việt Nam 2023, năm thứ 10 vừa diễn ra ngày 22/9/2023.\nChương trình Top 10 doanh nghiệp số xuất sắc năm 2023 đã lựa chọn trao cho 104 lượt doanh nghiệp tại 23 lĩnh vực trong đó có 13 doanh nghiệp có doanh thu trên 1.000 tỉ đồng. Năm nay cũng bổ sung nhiều lĩnh vực mới theo sát xu hướng của cuộc cách mạng số, chuyển đổi số.', 'Đồ thị thông tin dưới đây gồm 10 thị trường mới nổi được dự báo sẽ chứng kiến FDI tăng mạnh nhất trong năm nay, dựa trên xếp hạng được tạp chí fDi Intelligence công bố vào tháng 12/2023.\nĐây là 10 quốc gia có triển vọng FDI tốt nhất năm 2024 tại khu vực châu Á, châu Phi, Trung Đông và châu Âu. Trong đó, châu Á có 6 đại diện, dẫn đầu là Campuchia.', 'TOP 10 CÔNG TY SẼ TẠO ẢNH HƯỞNG NĂM 2024\nBên cạnh việc TikTok, OpenAI và các công ty công nghệ lớn khác rất có thể sẽ tiếp tục thống trị các mặt báo vào năm 2024, Tech Wire Asia tin rằng vẫn sẽ có một vài cái tên mới góp mặt trong bảng gây sức ảnh hưởng.\nDưới đây là top 10 công ty được Tech Wire Asia khuyên theo dõi trong năm 2024. Danh sách được xây dựng dựa trên kết quả hoạt động năm 2023 và kế hoạch phát triển năm 2024 của từng công ty. Các công ty này được chọn dựa trên kết quả hoạt động của họ trong năm 2023 và kế hoạch cho năm 2024.', 'Vậy anh hình dung thế nào về Công ty CP Quốc tế Dony trong khoảng 5 năm tới?\nChúng tôi đặt mục tiêu đến năm 2028,\xa0Dony sẽ trở thành doanh nghiệp số\xa0một về\xa0đồng phục tại Việt Nam. Cố gắng đến năm 2030, chúng tôi có thể lọt vào\xa0top\xa0100\xa0doanh nghiệp may đồng phục tốt nhất trên\xa0thế\xa0giới.\nVnEconomy\xa013/10/2023 08:00', 'Fubon Life Việt Nam tiếp tục nhận danh hiệu Rồng Vàng lần thứ 10. Ngày 10/4 vừa qua, Diễn đàn Nhịp cầu phát triển Việt Nam 2024 (Vietnam Connect Forum) và sự kiện vinh danh doanh nghiệp Rồng Vàng (Golden Dragon Awards) 2024 đã được tổ chức thành công tốt đẹp tại Trung tâm Hội nghị thành phố Hải Phòng. Tại đây, Fubon Life Việt Nam vinh dự đạt top 50 Doanh nghiệp FDI tiêu biểu tại Việt Nam năm 2023-2024. Đây là lần thứ 10 Fubon Life Việt Nam được xướng tên tại danh hiệu danh giá này.... Chủ đề năm 2024 của Diễn đàn là: “Việt Nam hướng tới nền kinh tế xanh, bền vững” từ chiến lược, chính sách của chính phủ tới các sáng kiến, giải pháp của địa phương và doanh nghiệp', '10 công ty công nghệ định hình tương lai năm 2024. Năm 2024 dự kiến sẽ có một “cuộc chiến” giành quyền thống trị giữa các nhà sản xuất chip…. Năm 2023 là một năm nhiều biến động đối với các công ty công nghệ trên toàn cầu. Trong khi một số công ty công nghệ đạt được lợi nhuận kỷ lục, thì cũng có nhiều công ty phải chịu lỗ, giảm thị phần và sa thải số lượng nhân viên đáng kể. Đầu tư vào AI tổng quát dường như là trọng tâm của mọi công ty công nghệ vào năm 2023, nhưng vẫn chưa rõ liệu những khoản đầu tư đó có đủ để giúp họ có lãi vào năm 2024 hay không.', '10 startup AI đáng chú ý nhất năm 2023. Năm 2023 có thể được gọi là “Kỷ nguyên Trí tuệ nhân tạo” khi hàng trăm công ty khởi nghiệp, công cụ và phần mềm ra đời. Nhưng chỉ một số ít trong số đó thành công.... Năm 2023 được đánh dấu bằng sự trỗi dậy nhanh chóng của AI tạo sinh (genAI). Từ ChatGPT đến hình đại diện AI, AI tổng quát đã mang đến một số sản phẩm thú vị. Năm 2023 có thể được gọi là “Kỷ nguyên Trí tuệ nhân tạo” khi hàng trăm công ty khởi nghiệp, công cụ và phần mềm ra đời. Nhưng chỉ một số ít trong số đó thành công.\nSau đây là 10 công ty khởi nghiệp genAI hàng đầu năm 2023, theo tổng hợp của trang Your Story. Theo đó, hãy chú ý đến những startup này khi họ có thể sẽ là những người tiên phong xác định lại ranh giới của công nghệ.', 'Đại diện OPES - Tổng giám đốc Đặng Hoàng Tùng chia sẻ:“Năm 2023 là một năm mà OPES bước vào giai đoạn bản lề với những sự thay đổi lớn trong cách thức vận hành cả hệ thống, góp phần mang lại nhiều giá trị tới các khách hàng và đối tác. Bước sang 2024, OPES sẽ chính thức tăng tốc cùng bệ đỡ là nền tảng công nghệ số được xây dựng hoàn thiện. Chúng tôi hướng đến mục tiêu lọt Top 10 công ty bảo hiểm phi nhân thọ lớn nhất tại Việt Nam với mức tăng trưởng lên tới 100 %”.', 'Theo báo cáo Tăng trưởng Trí tuệ nhân tạo tạo sinh 2023 của Bloomberg Intelligence, trong 10 năm tới thị trường GenAI sẽ phát triển mạnh mẽ từ quy mô 40 tỷ USD năm 2022 lên mốc 1.300 tỷ USD vào 2032, tăng 32,5 lần. Tỷ suất tăng trưởng kép hàng năm (Compound Annual Growth Rate - CAGR) được dự báo có thể đạt 42%, theo Bloomberg. Trong nhận định đưa ra cuối năm 2023, IDC ước tính trong 10 năm tới GenAI sẽ đóng góp gần 10.000 tỷ USD vào GDP toàn cầu.', 'Top 3 doanh nghiệp đạt Sáng kiến Việt Nam 2023 sẽ được công bố vào tháng 10/2023. Bộ Kế hoạch và Đầu tư và Cơ quan Phát triển Quốc tế Hoa Kỳ (USAID) cho biết sau vòng chung kết thẩm định 10 doanh nghiệp, Hội đồng đánh giá Sáng kiến ESG Việt Nam 2023 sẽ lựa chọn 3 doanh nghiệp xuất sắc để tiếp tục hỗ trợ kỹ thuật và tư vấn chuyên sâu.... Bộ Kế hoạch và Đầu tư phối hợp với Cơ quan Phát triển Quốc tế Hoa Kỳ (USAID) vừa tổ chức Vòng chung kết Sáng kiến ESG Việt Nam 2023.']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[{'source': './Dataset_economy/dm_TaiChinh/tai-chinh/10-su-kien-noi-bat-nganh-tai-chinh-nam-2023.txt', 'filename': '10-su-kien-noi-bat-nganh-tai-chinh-nam-2023.txt', 'category': 'dm_TaiChinh'}, {'category': 'dm_KinhTeSo', 'source': './Dataset_economy/dm_KinhTeSo/dich-vu-so/doanh-thu-top-10-doanh-nghiep-cong-nghe-so-xuat-sac-nam-2023-dat-hon-7-ty-usd.txt', 'filename': 'doanh-thu-top-10-doanh-nghiep-cong-nghe-so-xuat-sac-nam-2023-dat-hon-7-ty-usd.txt'}, {'category': 'dm_TheGioi', 'filename': '10-thi-truong-moi-noi-hut-fdi-manh-nhat-nam-2024-campuchia-dan-dau.txt', 'source': './Dataset_economy/dm_TheGioi/the-gioi-kinh-te/10-thi-truong-moi-noi-hut-fdi-manh-nhat-nam-2024-campuchia-dan-dau.txt'}, {'source': './Dataset_economy/dm_KinhTeSo/kinh-te-so/10-cong-ty-cong-nghe-dinh-hinh-tuong-lai-nam-2024.txt', 'filename': '10-cong-ty-cong-nghe-dinh-hinh-tuong-lai-nam-2024.txt', 'category': 'dm_KinhTeSo'}, {'category': 'dm_DoanhNghiep', 'source': './Dataset_economy/dm_DoanhNghiep/nhip-cau-doanh-nghiep/tim-cach-nguoc-bao-doanh-nghiep-toa-sang.txt', 'filename': 'tim-cach-nguoc-bao-doanh-nghiep-toa-sang.txt'}, {'category': 'dm_DoanhNghiep', 'source': './Dataset_economy/dm_DoanhNghiep/nhip-cau-doanh-nghiep/fubon-life-viet-nam-tiep-tuc-nhan-danh-hieu-rong-vang-lan-thu-10.txt', 'filename': 'fubon-life-viet-nam-tiep-tuc-nhan-danh-hieu-rong-vang-lan-thu-10.txt'}, {'filename': '10-cong-ty-cong-nghe-dinh-hinh-tuong-lai-nam-2024.txt', 'category': 'dm_KinhTeSo', 'source': './Dataset_economy/dm_KinhTeSo/kinh-te-so/10-cong-ty-cong-nghe-dinh-hinh-tuong-lai-nam-2024.txt'}, {'source': './Dataset_economy/dm_KinhTeSo/kinh-te-so/10-startup-ai-dang-chu-y-nhat-nam-2023.txt', 'category': 'dm_KinhTeSo', 'filename': '10-startup-ai-dang-chu-y-nhat-nam-2023.txt'}, {'filename': 'bao-hiem-so-opes-but-pha-ve-cong-nghe-tren-thi-truong-phi-nhan-tho-viet-nam.txt', 'source': './Dataset_economy/dm_TaiChinh/tai-chinh/bao-hiem-so-opes-but-pha-ve-cong-nghe-tren-thi-truong-phi-nhan-tho-viet-nam.txt', 'category': 'dm_TaiChinh'}, {'filename': 'su-bung-no-cua-genai-co-hoi-va-thach-thuc.txt', 'source': './Dataset_economy/dm_DanSinh/dan-sinh/su-bung-no-cua-genai-co-hoi-va-thach-thuc.txt', 'category': 'dm_DanSinh'}, {'source': './Dataset_economy/dm_DauTu/dau-tu/top-3-doanh-nghiep-dat-sang-kien-viet-nam-2023-se-duoc-cong-bo-vao-thang-10-2023.txt', 'filename': 'top-3-doanh-nghiep-dat-sang-kien-viet-nam-2023-se-duoc-cong-bo-vao-thang-10-2023.txt', 'category': 'dm_DauTu'}]</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.0495049504950495</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.03684380630918061</v>
       </c>
     </row>
     <row r="3">
@@ -529,32 +547,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dự án đường Vành đai 4 TP.HCM có tổng chiều dài khoảng 206,82 km, đi qua 5 tỉnh thành gồm Bà Rịa – Vũng Tàu (18,7 km), Đồng Nai (45,6 km), Bình Dương (47,45 km), TP.HCM (17,3 km) và Long An (78,3 km). Sơ bộ tổng mức đầu tư giai đoạn 1 khoảng 105.964 tỷ đồng.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Dự án đường Vành đai 4 TP.HCM có tổng chiều dài khoảng 206,82 km, đi qua 5 tỉnh thành gồm Bà Rịa – Vũng Tàu (18,7 km), Đồng Nai (45,6 km), Bình Dương (47,45 km), TP.HCM (17,3 km) và Long An (78,3 km). Quy mô đường cao tốc loại A, vận tốc thiết kế 100 km/giờ, mặt cắt ngang 6-8 làn xe. Sơ bộ tổng mức đầu tư giai đoạn 1 khoảng 105.964 tỷ đồng.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Các địa phương đề xuất tổng chiều dài đường Vành đai 4 TP.HCM là khoảng 206,82 km. Chia ra như sau: Bà Rịa – Vũng Tàu dài 18,7 km; Đồng Nai dài 45,6 km; Bình Dương dài 47,45 km; TPHCM 17,3 km và Long An 78,3 km (chiếm tỷ lệ dài nhất của dự án). Quy mô chiều rộng mặt cắt ngang được đề xuất (giai đoạn 1) từ 22 - 27 m, tùy địa phương. Sơ bộ tổng mức đầu tư giai đoạn 1 khoảng 105.964 tỷ đồng. Dự án đường Vành đai 4 TP.HCM có quy mô và tiêu chuẩn kỹ thuật là đường cao tốc loại A, vận tốc thiết kế 100 km/giờ; mặt cắt ngang 6 - 8 làn xe.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>❌ Xin lỗi, tôi không tìm thấy thông tin liên quan trong cơ sở dữ liệu để trả lời câu hỏi của bạn.</t>
+          <t>Tổng mức đầu tư dự án đường Vành đai 4 TP.HCM là gần 105.964 tỷ đồng.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>['Dự kiến đầu tư gần 75.000 tỷ đồng xây dựng 6 dự án BOT tại TP.HCM. CII dự kiến sẽ đầu tư 22.000 tỷ đồng vào cao tốc TP.HCM - Trung Lương - Mỹ Thuận giai đoạn 2 và 52.000 tỷ đồng được rót vào các dự án BOT mở rộng đường xá…. Công ty cổ phần Đầu tư hạ tầng kỹ thuật TP.HCM (CII) cho biết đang đẩy mạnh nghiên cứu, đề xuất các dự án thu phí đường bộ (BOT) mới với tổng quy mô gần 75.000 tỷ đồng giai đoạn 2024 - 2030.\nCụ thể, dự án có tổng mức đầu tư dự kiến cao nhất là cao tốc TP.HCM - Trung Lương - Mỹ Thuận giai đoạn 2 với 22.000 tỷ đồng. Tuyến cao tốc này được xây dựng 4 làn xe, CII sở hữu 89%. Khi thực hiện giai đoạn 2, tuyến đường sẽ được mở rộng thêm 4 làn xe, theo phương thức đối tác công tư (PPP).', 'Nhóm còn lại là các dự án nghiên cứu chuẩn bị đầu tư dự kiến có tổng vốn đầu tư khoảng 44.251 tỷ đồng. Cụ thể: 4 dự án kết nối đường Vành đai 3; tuyến đường kết nối cao tốc TP.HCM - Chơn Thành vào Gò Dưa - Vành đai 2 TP.HCM; kéo dài đường Long Phước kết nối từ đường Long Thuận đến chỗ ra/vào cao tốc TP.HCM - Long Thành - Dầu Giây; và dự án đường nối cao tốc TP.HCM - Mộc Bài đến nút giao Vườn Lài - Vành đai 2 TP.HCM.\nToàn bộ 7 dự án này đều được đề xuất thực hiện bằng ngân sách địa phương, do UBND TP.HCM làm cơ quan chủ quản, triển khai trong giai đoạn từ nay đến 2030.\nNgoài ra, nút giao tuyến đường liên cảng Cát Lái - Phú Hữu kết nối đường Vành đai 3 và cao tốc TP.HCM - Long Thành - Dầu Giây cũng sẽ được tính đến trong thời gian tới.', 'Chậm cung cấp cát đắp nền đường cao tốc Châu Đốc - Cần Thơ - Sóc Trăng. Cao tốc Châu Đốc - Cần Thơ - Sóc Trăng đang được triển khai đồng thời nhiều hạng mục, tuy nhiên dự án vẫn đang gặp thách thức lớn về nguồn cung cấp vật liệu cát đắp nền đường….. Dự án đầu tư xây dựng đường bộ cao tốc Châu Đốc - Cần Thơ - Sóc Trăng giai đoạn 1 có tổng chiều dài hơn 188km, quy mô phân kỳ 4 làn xe, sơ bộ tổng mức đầu tư khoảng gần 44.700 tỷ đồng, được triển khai đầu tư theo hình thức đầu tư công.\nDự án được chia thành 4 dự án thành phần với mục tiêu kết nối các trục dọc, các trung tâm kinh tế, cửa khẩu quốc tế và cảng biển, đáp ứng nhu cầu vận tải trên hành lang kinh tế Tây Bắc - Đông Nam.', 'Dự án đường Vành đai 3 TP.HCM có chiều dài hơn 76km, kết nối TP.HCM với các tỉnh Đồng Nai, tỉnh Bình Dương, tỉnh Long An và các địa phương khác trong vùng.\nTuyến đường vành đai này được đầu tư theo quy mô cao tốc vận tốc 100km/giờ, quy mô phân kỳ 4 làn xe và đường song hành hai bên (đường đô thị 2-3 làn xe) đầu tư không liên tục. Tổng mức đầu tư dự án là gần 75.400 tỷ đồng, sử dụng nguồn vốn từ ngân sách Trung ương và ngân sách địa phương.', 'Nhiều nhà đầu tư quan tâm rót tiền mở rộng cao tốc TP.HCM - Trung Lương - Mỹ Thuận. Việc mở rộng cao tốc TP.HCM - Trung Lương - Mỹ Thuận dường như thuận lợi hơn khi có nhiều nhà đầu tư quan tâm, muốn rót tiền vào dự án này.... Mới đây, Bộ Giao thông Vận tải đã có báo cáo gửi Chính phủ về tình hình đầu tư tuyến cao tốc TP.HCM - Trung Lương - Mỹ Thuận.\nTheo báo cáo của Bộ Giao thông Vận tải, đoạn cao tốc TP.HCM - Trung Lương có chiều dài 39,8km và khoảng 22,1km tuyến nối, đi qua địa bàn TP.HCM, Long An và Tiền Giang. Quy mô đầu tư giai đoạn 1 là 4 làn xe, thực hiện giải phóng mặt bằng quy mô 8 làn xe. Dự án được đầu tư bằng nguồn vốn ngân sách Nhà nước, hoàn thành vào tháng 2/2010.', 'Theo ông Lâm, dự án Vành đai 4 TP.HCM được đầu tư với quy mô mặt cắt ngang 22 – 27 m, 4 làn mỗi bên (thiết kế chuẩn cao tốc 100 km/h), 2 làn dừng khẩn cấp, dải phân cách cứng bêtông. Tổng mức đầu tư sơ bộ khoảng 105,964 tỷ đồng; trong đó chi phí xây dựng 33.095 tỷ đồng, chi phí giải phóng mặt bằng 47.258 tỷ đồng, các chi phí quản lý dự án và tư vấn khoảng 25.611 tỷ đồng. Cơ cấu vốn và phương thức đầu tư: Chủ trương chung 50/50, gồm vốn ngân sách (trung ương và địa phương) chiếm 50%, vốn huy động PPP 50%.\nDự án được đề xuất đầu tư theo hai phương án: Phương án 1, mỗi địa phương chịu trách nhiệm đầu tư phần dự án qua địa phương mình; phương án 2, gộp thành một dự án chung và lập một ban chỉ đạo chung triển khai thực hiện.', 'UBND TP.HCM đề xuất phân bổ nguồn vốn ngân sách Trung ương bố trí cho các dự án như: Dự án xây dựng nút giao An Phú 500 tỷ đồng; dự án thành phần 1 thuộc dự án đường Vành đai 3 số vốn 500 tỷ đồng; xây dựng, mở rộng quốc lộ 50 huyện Bình Chánh 45,89 tỷ đồng; dự án xây dựng hạ tầng và cải tạo môi trường kênh Tham Lương - Bến Cát - rạch Nước lên 1.500 tỷ đồng…\nTổng số ngân sách địa phương của TP.HCM được Bộ Kế hoạch và Đầu tư thông báo dự kiến hơn 75.577,216 tỷ đồng. UBND thành phố đề xuất phân bổ cho các chương trình, dự án, đối tượng đầu tư công trong kế hoạch đầu tư công trung hạn giai đoạn 2021-2025 là 74.282,709 tỷ đồng.', 'Trước đó, tại văn bản số 2540/BC-VEC gửi tới đại diện chủ sở hữu phần vốn Nhà nước tại doanh nghiệp, VEC đề xuất 4 phương án đầu tư mở rộng đoạn từ nút giao Vành đai 2 đến nút giao đường cao tốc Biên Hòa - Vũng Tàu, với tổng chiều dài khoảng 21,92km.\nTại văn bản số 2540, VEC đề xuất 4 phương án thực hiện dự án mở rộng đoạn cao tốc TP.HCM - Long Thành.\nPhương án 1, dự án được đầu tư với cơ cấu nguồn vốn VEC huy động 100%, trong đó, 40% tổng mức đầu tư là vốn của doanh nghiệp và 60% huy động từ các tổ chức tín dụng, tổ chức tài chính.', 'Đồng thời, thành phố còn có dự án đường Vành đai 3 TP.HCM đã được khởi công từ tháng 6/2023; dự án Vành đai 4 dự kiến khởi công vào năm 2025.\nTheo đó, để kết nối với hệ thống đường cao tốc và Vành đai trên địa bàn, TP.HCM sẽ chi hơn 56.500 tỷ đồng để xây dựng các tuyến đường kết nối. Trong số đó, có 4 dự án sẽ được thành phố ưu tiên làm ngay với tổng vốn đầu tư gần 12.300 tỷ đồng.\nThứ nhất là dự án mở rộng nhánh nối Tân Tạo - Chợ Đệm và Bình Thuận - Chợ Đệm từ 6 làn xe hiện hữu lên 8 làn để kết nối TP.HCM với các tỉnh miền Tây thông qua cao tốc TP.HCM - Trung Lương.\nThứ hai là tuyến TP.HCM - Long Thành - Dầu Giây sẽ xây nhánh nối đường Long Phước với 2 làn xe để kết nối từ cao tốc này với thành phố Thủ Đức.', 'Trường hợp UBND tỉnh Nam Định được giao nhiệm vụ chuẩn bị đầu tư, quá trình triển khai lập báo cáo nghiên cứu tiền khả thi, Bộ Giao thông vận tải đề nghị UBND tỉnh Nam Định đề xuất đầu tư quy mô 4 làn xe, nền đường rộng từ 24 - 48 m.\nĐồng thời, rà soát quy chuẩn, tiêu chuẩn thiết kế đường cao tốc để xác định tiêu chuẩn kỹ thuật của dự án bảo đảm quy mô đầu tư phù hợp với quy hoạch có liên quan, điều kiện địa hình, bảo đảm tính kinh tế - kỹ thuật.\n"Dự kiến sơ bộ tổng mức đầu tư dự án khoảng 9.400 tỷ đồng, suất đầu tư khoảng 375 tỷ đồng/km cao hơn nhiều so với suất đầu tư của tuyến đường cao tốc xây dựng mới được Bộ Xây dựng công bố",\xa0Bộ Giao thông vận tải nêu rõ.', 'Hơn 17.000 tỷ đồng đầu tư cao tốc TP.HCM - Thủ Dầu Một - Chơn Thành theo phương thức PPP. Gần 7 tháng kể từ khi Ủy ban nhân dân tỉnh Bình Dương gửi văn bản lên Thủ tướng Chính phủ đề xuất đầu tư một đoạn của dự án cao tốc TP.HCM – Chơn Thành qua Bình Dương theo phương thức đối tác công tư (PPP) vào tháng 5/2023, vừa qua tại kỳ họp thứ 13 Hội đồng nhân dân tỉnh Bình Dương khóa X đã thông qua nghị quyết về chủ trường đầu tư dự án này.... Dự án đầu tư xây dựng đường bộ cao tốc TP.HCM – Chơn Thành nối TP.HCM với Bình Phước đi các tỉnh Tây Nguyên và ngược lại, có tổng chiều dài khoảng 70 km, gồm hai hợp phần là TP.HCM – Thủ Dầu Một (Bình Dương) và Thủ Dầu Một – Chơn Thành.', 'Mới đây, tại cuộc họp lấy ý kiến lãnh đạo các tỉnh, thành phố về phương án đầu tư Vành đai 4 TP.HCM, ông Trần Quang Lâm, Giám đốc Sở Giao thông vận tải TP.HCM cho biết, hiện nay các đoạn/tuyến đang được các địa phương liên quan lập báo cáo nghiên cứu tiền khả thi.\nGiai đoạn 1, dự án được đầu tư với quy mô mặt cắt ngang 22 – 27 m, 4 làn mỗi bên (thiết kế chuẩn cao tốc 100 km/h), 2 làn dừng khẩn cấp, dải phân cách cứng bêtông. Tổng mức đầu tư sơ bộ khoảng 105,964 tỷ đồng; trong đó chi phí xây dựng 33.095 tỷ đồng, chi phí giải phóng mặt bằng 47.258 tỷ đồng, các chi phí quản lý dự án và tư vấn khoảng 25.611 tỷ đồng. Cơ cấu vốn và phương thức đầu tư: Chủ trương chung 50/50, gồm vốn ngân sách (trung ương và địa phương) chiếm 50%, vốn huy động PPP 50%.', 'Cơ sở đề xuất này là dựa vào kết quả thực hiện mô hình TOD tại các nút giao thuộc tuyến Vành đai 3 TP.HCM, vì vậy cần thiết nghiên cứu, bổ sung TOD vào các vùng phụ cận và các nút giao của tuyến Vành đai 4, cao tốc TP.HCM – Mộc Bài.\nDự án đường Vành đai 4 TP.HCM và cao tốc TP.HCM – Mộc Bài là hai dự án đang lập báo cáo nghiên cứu tiền khả thi, dự kiến sẽ hoàn tất báo cáo và trình thẩm định trong năm 2023.', 'Nhiều "lấn cấn" trong việc triển khai dự án cao tốc Vành đai 4 - Vùng Thủ đô theo phương thức PPP. Do dự án có quy mô phức tạp, yêu cầu khắt khe nên hiện chỉ có 1 nhà đầu tư trong nước quan tâm đến dự án xây dựng cao tốc Vành đai 4 - Vùng Thủ đô có tổng mức đầu tư hơn 56.293 tỷ đồng. Do đó, UBND TP. Hà Nội đề xuất được phép liên danh nhà đầu tư nội - ngoại thực hiện dự án PPP song vẫn còn nhiều lấn cấn.... UBND TP. Hà Nội vừa có\xa0Công văn số 1497/UBND - ĐT gửi Chính phủ, Thủ tướng Chính phủ xem xét, thống nhất giải pháp tháo gỡ khó khăn, vướng mắc trong quá trình triển khai thực hiện dự án\xa0thành phần 3, dự án đầu tư xây dựng đường Vành đai 4 - vùng Thủ đô.', 'Đối với các nút giao, tuyến kết nối cần ưu tiên bố trí vốn đầu tư trong giai đoạn tiếp theo, Bộ Giao thông vận tải rà soát, ưu tiên bố trí hơn 24.800 tỷ đồng trong kế hoạch đầu tư công trung hạn giai đoạn 2026 - 2030 và các nguồn vốn hợp pháp khác để đầu tư 4 nút giao, 12 tuyến kết nối là quốc lộ, nhánh nối cao tốc (các quốc lộ 1,\xa0 3, 9B, 47, 45, 40B, 28, 55, 70B, 34B, 2 nhánh nối trên cao tốc TP.HCM - Trung Lương.']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[{'filename': 'du-kien-dau-tu-gan-75-000-ty-dong-xay-dung-6-du-an-bot-tai-tp-hcm.txt', 'source': './Dataset_economy/dm_BatDongSan/dia-oc/du-kien-dau-tu-gan-75-000-ty-dong-xay-dung-6-du-an-bot-tai-tp-hcm.txt', 'category': 'dm_BatDongSan'}, {'source': './Dataset_economy/dm_DauTu/dau-tu-dia-phuong/tp-hcm-se-chi-hon-56-500-ty-dong-dau-tu-loat-duong-noi-cao-toc-vanh-dai.txt', 'filename': 'tp-hcm-se-chi-hon-56-500-ty-dong-dau-tu-loat-duong-noi-cao-toc-vanh-dai.txt', 'category': 'dm_DauTu'}, {'source': './Dataset_economy/dm_DauTu/ha-tang-dau-tu/cham-cung-cap-cat-dap-nen-duong-cao-toc-chau-doc-can-tho-soc-trang.txt', 'category': 'dm_DauTu', 'filename': 'cham-cung-cap-cat-dap-nen-duong-cao-toc-chau-doc-can-tho-soc-trang.txt'}, {'category': 'dm_DauTu', 'source': './Dataset_economy/dm_DauTu/ha-tang-dau-tu/chon-xong-nha-thau-lam-duong-vanh-dai-3-tp-hcm-vao-dau-nam-2024.txt', 'filename': 'chon-xong-nha-thau-lam-duong-vanh-dai-3-tp-hcm-vao-dau-nam-2024.txt'}, {'filename': 'nhieu-nha-dau-tu-quan-tam-rot-tien-mo-rong-cao-toc-tp-hcm-trung-luong-my-thuan.txt', 'category': 'dm_DauTu', 'source': './Dataset_economy/dm_DauTu/dau-tu-dia-phuong/nhieu-nha-dau-tu-quan-tam-rot-tien-mo-rong-cao-toc-tp-hcm-trung-luong-my-thuan.txt'}, {'filename': 'duong-vanh-dai-4-tp-hcm-long-an-kien-nghi-trung-uong-ho-tro-90-kinh-phi-dau-tu.txt', 'source': './Dataset_economy/dm_BatDongSan/du-an-bat-dong-san/duong-vanh-dai-4-tp-hcm-long-an-kien-nghi-trung-uong-ho-tro-90-kinh-phi-dau-tu.txt', 'category': 'dm_BatDongSan'}, {'category': 'dm_TieuDiem', 'filename': 'tp-hcm-keu-goi-dau-tu-41-du-an-theo-phuong-thuc-ppp.txt', 'source': './Dataset_economy/dm_TieuDiem/tp-hcm-keu-goi-dau-tu-41-du-an-theo-phuong-thuc-ppp.txt'}, {'category': 'dm_DauTu', 'filename': 'can-dong-4-phuong-an-de-mo-rong-cao-toc-tp-hcm-long-thanh-hon-15-000-ty-dong.txt', 'source': './Dataset_economy/dm_DauTu/dau-tu/can-dong-4-phuong-an-de-mo-rong-cao-toc-tp-hcm-long-thanh-hon-15-000-ty-dong.txt'}, {'source': './Dataset_economy/dm_DauTu/dau-tu-dia-phuong/tp-hcm-se-chi-hon-56-500-ty-dong-dau-tu-loat-duong-noi-cao-toc-vanh-dai.txt', 'filename': 'tp-hcm-se-chi-hon-56-500-ty-dong-dau-tu-loat-duong-noi-cao-toc-vanh-dai.txt', 'category': 'dm_DauTu'}, {'category': 'dm_DauTu', 'source': './Dataset_economy/dm_DauTu/dau-tu-dia-phuong/de-nghi-ra-soat-phuong-an-dau-tu-cao-toc-phu-ly-tp-nam-dinh-do-suat-dau-tu-cao-375-ty-dong-km.txt', 'filename': 'de-nghi-ra-soat-phuong-an-dau-tu-cao-toc-phu-ly-tp-nam-dinh-do-suat-dau-tu-cao-375-ty-dong-km.txt'}, {'source': './Dataset_economy/dm_BatDongSan/dia-oc/hon-17-000-ty-dong-dau-tu-cao-toc-tp-hcm-thu-dau-mot-chon-thanh-theo-phuong-thuc-ppp.txt', 'category': 'dm_BatDongSan', 'filename': 'hon-17-000-ty-dong-dau-tu-cao-toc-tp-hcm-thu-dau-mot-chon-thanh-theo-phuong-thuc-ppp.txt'}, {'source': './Dataset_economy/dm_BatDongSan/du-an-bat-dong-san/can-co-che-dac-thu-de-lam-cao-toc-vanh-dai-4-tp-hcm.txt', 'category': 'dm_BatDongSan', 'filename': 'can-co-che-dac-thu-de-lam-cao-toc-vanh-dai-4-tp-hcm.txt'}, {'category': 'dm_DauTu', 'filename': 'nghien-cuu-mo-rong-de-an-tod-cho-tuyen-vanh-dai-4-va-cao-toc-tp-hcm-moc-bai.txt', 'source': './Dataset_economy/dm_DauTu/dau-tu-dia-phuong/nghien-cuu-mo-rong-de-an-tod-cho-tuyen-vanh-dai-4-va-cao-toc-tp-hcm-moc-bai.txt'}, {'source': './Dataset_economy/dm_DauTu/dau-tu/nhieu-lan-can-trong-viec-trien-khai-du-an-cao-toc-vanh-dai-4-vung-thu-do-theo-phuong-thuc-ppp.txt', 'category': 'dm_DauTu', 'filename': 'nhieu-lan-can-trong-viec-trien-khai-du-an-cao-toc-vanh-dai-4-vung-thu-do-theo-phuong-thuc-ppp.txt'}, {'category': 'dm_BatDongSan', 'filename': 'can-174-500-ty-dong-dau-tu-cho-giao-thong-ket-noi.txt', 'source': './Dataset_economy/dm_BatDongSan/du-an-bat-dong-san/can-174-500-ty-dong-dau-tu-cho-giao-thong-ket-noi.txt'}]</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.0167936599436158</v>
       </c>
     </row>
     <row r="4">
@@ -565,43 +591,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giai đoạn 2021 – 2025, trên địa bàn TP.HCM có 91 dự án nhà ở xã hội, quy mô dự kiến khoảng 98.685 căn hộ. Trong đó có 49 dự án đã được chấp thuận chủ trương đầu tư với quy mô 56.200 căn hộ. Riêng huyện Bình Chánh có 21 dự án với khoảng 42.442 căn nhà ở xã hội.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Theo Sở Xây dựng TP.HCM, trên địa bàn thành phố có 09 dự án nhà ở xã hội đang triển khai với diện tích đất 17,5 ha, 517.689 m2 sàn xây dựng, quy mô 6.383 căn hộ. Trong đó có 05 dự án chuyển tiếp từ giai đoạn 2016-2020 và 04 dự án khởi công trong năm 2022. Giai đoạn 2016-2020, thành phố đã hoàn thành 19 dự án nhà ở xã hội với 14.954 căn hộ. Giai đoạn 2021-2025, chỉ tiêu phát triển nhà ở xã hội dự kiến khoảng 2,5 triệu m2, tương đương khoảng 35.000 căn. Hiện còn 82 dự án đang được theo dõi trong kế hoạch phát triển.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Theo Sở Xây dựng TP.HCM, hiện nay, trên địa bàn thành phố có 09 dự án nhà ở xã hội đang triển khai với diện tích đất 17,5 ha, 517.689 m2 sàn xây dựng, quy mô 6.383 căn hộ. Trong đó, có 05 dự án chuyển tiếp từ giai đoạn 2016 - 2020; 04 dự án động thổ, khởi công trong năm 2022. Giai đoạn 2016-2020, thành phố đã xây dựng, đưa vào sử dụng 19 dự án nhà ở xã hội, quy mô 14.954 căn hộ. Giai đoạn 2021-2025, chỉ tiêu phát triển nhà ở xã hội dự kiến khoảng 2,5 triệu m2, khoảng 35.000 căn nhà. Kết quả đến quý 2-2023, Thành phố đã hoàn thành đưa vào sử dụng 2 dự án, quy mô 623 căn hộ. Có 6 dự án nhà ở xã hội (với quy mô 3.956 căn hộ) và 1 dự án nhà lưu trú công nhân (1.040 căn) đang thi công. Hiện còn 82 dự án đang được theo dõi trong kế hoạch phát triển nhà ở xã hội.</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Theo thông tin được cung cấp, TP.HCM có các dự án nhà ở xã hội như sau:
-- Giai đoạn 2021-2025, có 02 dự án đã được đưa vào sử dụng với quy mô 623 căn.
-- Giai đoạn 2021-2025, có 07 dự án nhà ở xã hội và lưu trú công nhân đang thi công với quy mô 4.996 căn.
-- Giai đoạn 2021-2025, có 82 dự án đang được thống kê để theo dõi trong kế hoạch phát triển nhà ở xã hội.
-- Giai đoạn 2016-2020, thành phố đã xây dựng, đưa vào sử dụng 19 dự án nhà ở xã hội, quy mô 14.954 căn hộ.
-- Hiện tại, TP.HCM đang triển khai 06 dự án nhà ở xã hội với gần 300.000 m2 sàn xây dựng, quy mô 3.956 căn hộ.
-- Huyện Bình Chánh có 21 dự án nhà ở xã hội, với khoảng 42.442 căn nhà ở xã hội trong giai đoạn 2016-2025.
-Tổng số dự án nhà ở xã hội tại TP.HCM bao gồm cả những dự án đã hoàn thành, đang thi công và đang được theo dõi trong kế hoạch phát triển. Tuy nhiên, để có số lượng dự án chính xác, cần tổng hợp và loại bỏ sự trùng lặp giữa các giai đoạn và thông tin khác nhau.</t>
+          <t>88 dự án nhà ở xã hội.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Giai đoạn 2021 - 2025 (tính đến hết quý 2/2023), TP.HCM có 02 dự án được đưa vào sử dụng với quy mô 623 căn, 07 dự án nhà ở xã hội và lưu trú công nhân đang thi công với quy mô 4.996 căn, 82 dự án đang được thống kê để theo dõi trong kế hoạch phát triển nhà ở xã hội.\nTheo chỉ tiêu phát triển nhà ở xã hội giai đoạn 2021 - 2025, TP.HCM dự kiến phát triển khoảng 2,5 triệu m2 sàn nhà ở xã hội tương ứng khoảng 35.000 căn nhà. Trong đó, nhà ở cho thuê phấn đấu đạt khoảng 7.000 căn hộ, nhà ở lưu trú công nhân đạt khoảng 4.500 căn hộ.', 'Giai đoạn 2021 - 2025 (tính đến hết quý 2/2023), TP.HCM có 02 dự án được đưa vào sử dụng với quy mô 623 căn, 07 dự án nhà ở xã hội và lưu trú công nhân đang thi công với quy mô 4.996 căn, 82 dự án đang được thống kê để theo dõi trong kế hoạch phát triển nhà ở xã hội.\nTheo chỉ tiêu phát triển nhà ở xã hội giai đoạn 2021 - 2025, TP.HCM dự kiến phát triển khoảng 2,5 triệu m2 sàn nhà ở xã hội tương ứng khoảng 35.000 căn nhà. Trong đó, nhà ở cho thuê phấn đấu đạt khoảng 7.000 căn hộ, nhà ở lưu trú công nhân đạt khoảng 4.500 căn hộ.', 'TP.HCM phát triển 35.000 căn nhà ở xã hội giai đoạn 2021-2025. Giai đoạn 2021-2025, chỉ tiêu phát triển nhà ở xã hội TP.HCM dự kiến khoảng 2,5 triệu m2, tương đương khoảng 35.000 căn; phấn đấu nhà ở cho thuê đạt 7.000 căn hộ, nhà ở lưu trú công nhân đạt 4.500 căn hộ…. UBND TP.HCM vừa có báo cáo về việc triển khai, thực hiện các dự án nhà ở xã hội trên địa bàn Thành phố giai đoạn 2016-2025. Giai đoạn 2016-2020, thành phố đã xây dựng, đưa vào sử dụng 19 dự án nhà ở xã hội, quy mô 14.954 căn hộ.', 'TP.HCM phát triển 35.000 căn nhà ở xã hội giai đoạn 2021-2025. Giai đoạn 2021-2025, chỉ tiêu phát triển nhà ở xã hội TP.HCM dự kiến khoảng 2,5 triệu m2, tương đương khoảng 35.000 căn; phấn đấu nhà ở cho thuê đạt 7.000 căn hộ, nhà ở lưu trú công nhân đạt 4.500 căn hộ…. UBND TP.HCM vừa có báo cáo về việc triển khai, thực hiện các dự án nhà ở xã hội trên địa bàn Thành phố giai đoạn 2016-2025. Giai đoạn 2016-2020, thành phố đã xây dựng, đưa vào sử dụng 19 dự án nhà ở xã hội, quy mô 14.954 căn hộ.', 'TP.HCM sẽ có thêm gần 4.000 căn nhà ở xã hội. TP.HCM đang triển khai 06 dự án nhà ở xã hội với gần 300.000 m2 sàn xây dựng, quy mô 3.956 căn hộ…. Hiện TP.HCM đang triển khai xây dựng 6 dự án nhà ở xã hội với 298.714 m2 sàn xây dựng trên tổng diện tích đất là 9,36 ha, quy mô 3.956 căn hộ. Trong đó, 04 dự án được chuyển tiếp từ giai đoạn 2016 - 2020.\nThông tin trên được ông Mai Thanh Tùng, Phó Trưởng phòng Phát triển nhà và Thị trường bất động sản, Sở Xây dựng TP.HCM, cho biết tại họp báo về kinh tế - xã hội và các vấn đề dư luận quan tâm do Sở Thông tin và Truyền thông TP.HCM tổ chức mới đây.', 'TP.HCM sẽ có thêm gần 4.000 căn nhà ở xã hội. TP.HCM đang triển khai 06 dự án nhà ở xã hội với gần 300.000 m2 sàn xây dựng, quy mô 3.956 căn hộ…. Hiện TP.HCM đang triển khai xây dựng 6 dự án nhà ở xã hội với 298.714 m2 sàn xây dựng trên tổng diện tích đất là 9,36 ha, quy mô 3.956 căn hộ. Trong đó, 04 dự án được chuyển tiếp từ giai đoạn 2016 - 2020.\nThông tin trên được ông Mai Thanh Tùng, Phó Trưởng phòng Phát triển nhà và Thị trường bất động sản, Sở Xây dựng TP.HCM, cho biết tại họp báo về kinh tế - xã hội và các vấn đề dư luận quan tâm do Sở Thông tin và Truyền thông TP.HCM tổ chức mới đây.', 'Tại buổi làm việc với UBND huyện Bình Chánh về giám sát việc triển khai thực hiện các dự án nhà ở xã hội trên địa bàn TPHCM giai đoạn 2016-2025 trên địa bàn huyện, đại diện UBND huyện Bình Chánh cho biết, giai đoạn 2016-2025, huyện Bình Chánh có 21 dự án nhà ở xã hội, với khoảng 42.442 căn nhà ở xã hội. Trong đó, giai đoạn 2016-2020, có 12 dự án khoảng 22.816 căn nhà ở xã hội, gồm: nhà ở xã hội độc lập có 9 dự án; nhà lưu trú công nhân 2 dự án; Nhà ở xã hội được sử dụng quỹ đất 20% trong dự án nhà ở thương mại, khu đô thị có 1 dự án đã hoàn thành một phần.', 'Tại buổi làm việc với UBND huyện Bình Chánh về giám sát việc triển khai thực hiện các dự án nhà ở xã hội trên địa bàn TPHCM giai đoạn 2016-2025 trên địa bàn huyện, đại diện UBND huyện Bình Chánh cho biết, giai đoạn 2016-2025, huyện Bình Chánh có 21 dự án nhà ở xã hội, với khoảng 42.442 căn nhà ở xã hội. Trong đó, giai đoạn 2016-2020, có 12 dự án khoảng 22.816 căn nhà ở xã hội, gồm: nhà ở xã hội độc lập có 9 dự án; nhà lưu trú công nhân 2 dự án; Nhà ở xã hội được sử dụng quỹ đất 20% trong dự án nhà ở thương mại, khu đô thị có 1 dự án đã hoàn thành một phần.']</t>
+          <t>['Giai đoạn 2021 - 2025 (tính đến hết quý 2/2023), TP.HCM có 02 dự án được đưa vào sử dụng với quy mô 623 căn, 07 dự án nhà ở xã hội và lưu trú công nhân đang thi công với quy mô 4.996 căn, 82 dự án đang được thống kê để theo dõi trong kế hoạch phát triển nhà ở xã hội.\nTheo chỉ tiêu phát triển nhà ở xã hội giai đoạn 2021 - 2025, TP.HCM dự kiến phát triển khoảng 2,5 triệu m2 sàn nhà ở xã hội tương ứng khoảng 35.000 căn nhà. Trong đó, nhà ở cho thuê phấn đấu đạt khoảng 7.000 căn hộ, nhà ở lưu trú công nhân đạt khoảng 4.500 căn hộ.', 'TP.HCM phát triển 35.000 căn nhà ở xã hội giai đoạn 2021-2025. Giai đoạn 2021-2025, chỉ tiêu phát triển nhà ở xã hội TP.HCM dự kiến khoảng 2,5 triệu m2, tương đương khoảng 35.000 căn; phấn đấu nhà ở cho thuê đạt 7.000 căn hộ, nhà ở lưu trú công nhân đạt 4.500 căn hộ…. UBND TP.HCM vừa có báo cáo về việc triển khai, thực hiện các dự án nhà ở xã hội trên địa bàn Thành phố giai đoạn 2016-2025. Giai đoạn 2016-2020, thành phố đã xây dựng, đưa vào sử dụng 19 dự án nhà ở xã hội, quy mô 14.954 căn hộ.', 'Do đó, nhằm giải quyết khó khăn, vướng mắc của các doanh nghiệp trong quá trình thực hiện nghĩa vụ nhà ở xã hội với Nhà nước. Khuyến khích doanh nghiệp đưa quỹ đất vào xây dựng và phát triển nhà ở xã hội theo quy hoạch đô thị, chương trình, kế hoạch phát triển nhà ở của TP.HCM.\nSở Xây dựng TP.HCM cho rằng cần điều chỉnh các quỹ đất xây nhà ở xã hội trước đây theo hướng đồng đều và tiếp cận các vị trí thuận lợi cho giao thông công cộng, phù hợp nhu cầu từng khu vực.', 'TP.HCM sẽ có thêm gần 4.000 căn nhà ở xã hội. TP.HCM đang triển khai 06 dự án nhà ở xã hội với gần 300.000 m2 sàn xây dựng, quy mô 3.956 căn hộ…. Hiện TP.HCM đang triển khai xây dựng 6 dự án nhà ở xã hội với 298.714 m2 sàn xây dựng trên tổng diện tích đất là 9,36 ha, quy mô 3.956 căn hộ. Trong đó, 04 dự án được chuyển tiếp từ giai đoạn 2016 - 2020.\nThông tin trên được ông Mai Thanh Tùng, Phó Trưởng phòng Phát triển nhà và Thị trường bất động sản, Sở Xây dựng TP.HCM, cho biết tại họp báo về kinh tế - xã hội và các vấn đề dư luận quan tâm do Sở Thông tin và Truyền thông TP.HCM tổ chức mới đây.', 'Báo cáo tại buổi giám sát, ông Phạm Đăng Hồ, Trưởng phòng Phát triển nhà và thị trường bất động sản, Sở Xây dựng TP.HCM, cho biết giai đoạn 2016 – 2020, thành phố đã có 19 dự án nhà ở xã hội đã hoàn thành và đưa vào sử dụng, cung ứng cho thị trường 1,23 triệu m2 sàn, tương ứng 14.954 căn hộ. Giai đoạn này có 1 dự án nhà lưu trú công nhân, tổng diện tích đất 7 ha, quy mô 1.449 phòng, đáp ứng 7.596 chỗ ở cho công nhân.\nGiai đoạn 2021 – 2025 (đến hết quý 2/2023), TP.HCM đã hoàn thành đưa vào sử dụng 02 dự án với diện tích đất 18.459,6 m2, diện tích sàn xây dựng 59.893 m2, quy mô 623 căn hộ.\nĐồng thời có 07 dự án nhà ở xã hội và nhà lưu trú công nhân đang thi công với quy mô 4.996 căn hộ, tổng diện tích sàn 383.258 m2.', 'TP.HCM sẽ điều chỉnh quỹ đất xây nhà xã hội. Theo Sở Xây dựng TP.HCM, cần sắp xếp, cân đối, điều chỉnh các quỹ đất xây dựng nhà ở xã hội trước đây đã có để quỹ đất nhà ở xã hội được tập trung, có quy mô lớn, vị trí thuận lợi giao thông công cộng, phù hợp nhu cầu của từng khu vực…. Sở Xây dựng TP.HCM vừa có tờ trình gửi UBND TP.HCM kiến nghị xây dựng Quy định về quy trình phê duyệt quy hoạch, bố trí quỹ đất nhà ở xã hội ở vị trí khác ngoài phạm vi dự án nhà ở thương mại.\nTheo đó, từ năm 2003, TP.HCM chủ trương chủ đầu tư các dự án nhà ở thương mại, khu đô thị phải dành quỹ đất để xây nhà ở cho người thu nhập thấp.', 'Tại buổi làm việc với UBND huyện Bình Chánh về giám sát việc triển khai thực hiện các dự án nhà ở xã hội trên địa bàn TPHCM giai đoạn 2016-2025 trên địa bàn huyện, đại diện UBND huyện Bình Chánh cho biết, giai đoạn 2016-2025, huyện Bình Chánh có 21 dự án nhà ở xã hội, với khoảng 42.442 căn nhà ở xã hội. Trong đó, giai đoạn 2016-2020, có 12 dự án khoảng 22.816 căn nhà ở xã hội, gồm: nhà ở xã hội độc lập có 9 dự án; nhà lưu trú công nhân 2 dự án; Nhà ở xã hội được sử dụng quỹ đất 20% trong dự án nhà ở thương mại, khu đô thị có 1 dự án đã hoàn thành một phần.', 'Về các dự án nhà ở xã hội trên địa bàn thành phố, thống kê của Sở Xây dựng cho thấy hiện thành phố có 88 dự án nhà ở xã hội. Trong đó, có 33 dự án có khoảng 20% là đất ở thương mại, số còn lại rơi vào nhóm đất công, nhóm cổ phần hóa cần tiếp tục tháo gỡ.\nSở Xây dựng TP.HCM cho biết Sở cũng đang phối hợp với các ngành liên quan tổng hợp, đề xuất thành phố và chính phủ cập nhật nội dung nhà ở xã hội trong quy hoạch chung của thành phố.\n“Qua rà soát sơ bộ thì cả thành phố có nhu cầu trên 340.000 căn nhà ở xã hội, trong khi đó, hiện thành phố có gần 600.000 căn nhà trọ với sức chứa gần 2 triệu người, trong đó 50% là công nhân thuê ở”, Giám đốc Sở Xây dựng TP.HCM cho biết thêm.', 'Về sự lệch pha về sản phẩm trên thị trường (cao cấp và trung cấp áp đảo bình dân), ông Trần Hoàng Quân cho biết TP.HCM hiện có 33 dự án có quỹ đất 20% làm nhà ở xã hội. Nếu quỹ đất này được triển khai xây dựng, thành phố sẽ có trên 70.000 căn nhà ở xã hội. Tuy nhiên, trong 33 dự án này, 50% chưa giải tỏa xong, một số dự án gặp khó khăn về tính tiền làm hạ tầng, khó khăn về xác nhận đối tượng đủ điều kiện mua nhà ở xã hội...\nTrong chương trình 01 triệu căn nhà ở xã hội do Chính phủ đặt ra, TP.HCM được giao 69.000 căn, nhưng\xa0 thành phố đặt mục tiêu 92.000 căn đến năm 2030. Hiện nay, TP.HCM có 88 dự án nhà ở xã hội độc lập hoặc xen cài trong các dự án thương mại.', 'Cụ thể, nhóm 1, tháo gỡ các khó khăn vướng mắc của các dự án nhà ở xã hội; Nhóm 2, giải quyết trình tự thủ tục thực hiện quy trình đầu tư xây dựng nhà ở xã hội; Nhóm 3, quy trình xác nhận hoàn thành nghĩa vụ nhà ở xã hội trong dự án nhà ở thương mại có quy mô sử dụng đất dưới 10 ha; Nhóm 4, thúc đẩy đầu tư công các dự án nhà ở xã hội bằng nguồn vốn ngân sách nhà nước; Nhóm 5, sẽ phân công trách nhiệm theo dõi, giải quyết thủ tục đầu tư các dự án nhà ở xã hội cho các cơ quan, đơn vị có liên quan.\nVề triển khai xây nhà ở xã hội, số liệu của Sở Xây dựng cho thấy giai đoạn 2016 – 2025, TP.HCM đã xây dựng và đưa vào sử dụng 19 dự án nhà ở xã hội với quy mô 14.954 căn hộ, đạt 74% kế hoạch; hoàn thành và đưa vào sử dụng 01 nhà lưu trú công nhân, quy mô 1.499 phòng.', 'Riêng tại TP.HCM, địa phương dự kiến phát triển rất lớn số lượng nhà ở xã hội khi chỉ tiêu được giao và mục tiêu của thành phố đề ra để đảm bảo người dân có chỗ ở. Theo đó, giai đoạn 2021 – 2025, thành phố sẽ xây dựng 35.000 căn nhà ở xã hội. Trong đó, có 7.000 căn nhà cho thuê và 45.000 căn nhà lưu trú công nhân. Về quỹ đất, giai đoạn 2021 – 2025, TP.HCM dự kiến bố trí 68 dự án, khu đất để phát triển nhà ở xã hội. Trong đó, có 32 dự án, khu đất được chuyển tiếp từ giai đoạn 2016 – 2020 sang và bổ sung thêm 36 khu đất mới.\xa0Tính đến tháng 9/2023, trên địa bàn TP.HCM có 88 dự án, khu đất thuộc kế hoạch phát triển nhà ở xã hội dựa trên sự phù hợp của chương trình phát triển nhà ở theo từng giai đoạn được phê duyệt.', 'Tại buổi giám sát về triển khai, thực hiện các dự án nhà ở xã hội trên địa bàn TP.HCM giai đoạn 2016-2025 tại TP. Thủ Đức mới đây, ông Nguyễn Kỳ Phùng, Phó Chủ tịch UBND TP. Thủ Đức (TP.HCM), cho biết trong giai đoạn 2016 đến nay, trên địa bàn TP. Thủ Đức đã hoàn thành đưa vào sử dụng 6 dự án nhà ở xã hội, với 5.960 căn hộ; đang thực hiện đầu tư xây dựng 2 dự án nhà ở xã hội với 1.490 căn hộ nhà ở xã hội và 1 dự án nhà ở xã hội phục vụ công nhân thuê với 1.040 căn hộ; đã quy hoạch và đang thực hiện các thủ tục pháp lý để đầu tư xây dựng nhà ở xã hội với 22 dự án nhà ở xã hội, 1 nhà lưu trú công nhận và 1 nhà ở chuyên gia.', 'TP.HCM cũng đã và đang ưu tiên sử dụng các quỹ đất do nhà nước quản lý để kêu gọi đầu tư xây dựng các dự án nhà ở xã hội độc lập. Do đó, tại TP.HCM đã hình thành quỹ đất xây dựng nhà ở xã hội khá nhiều trong thời gian qua.\nTheo kế hoạch phát triển nhà ở giai đoạn 2021-2025, TP.HCM đặt chỉ tiêu phát triển 35.000 căn nhà và đã báo cáo Bộ Xây dựng danh mục các dự án, khu đất sẽ triển khai từ nay đến năm 2030.\nTuy nhiên, qua quá trình tổng hợp dự án, quỹ đất, Sở Xây dựng TP.HCM nhận thấy việc phát triển nhà ở xã hội còn nhiều bất cập, trong đó, việc phân bổ không đồng đều quỹ đất phát triển nhà ở xã hội giữa các khu vực, thừa ở những khu vực tập trung nhiều nhà ở thương mại nhưng lại thiếu tại các khu vực vùng ven, nông thôn.', 'Sắp tới, TP.HCM sẽ triển khai thực hiện các cụm nhà cho thuê ở các khu vực đông công nhân sinh sống. Không phải tất cả công nhân đều có nhu cầu mua nhà, nhưng họ có thể thuê nhà với giá hợp lý, vài ba triệu đồng/tháng. Thành phố sẽ khẩn trương giao Sở Xây dựng phối hợp Liên đoàn lao động TP.HCM phát triển dự án nhà cho thuê để có thể thực hiện từ đầu năm 2025.\nVề vấn đề nhà ở xã hội, TP.HCM đặt mục tiêu đến năm 2025 xây dựng được 35.000 căn, nhưng hiện tại số lượng rất ít. Thủ tướng giao TP.HCM xây 26.200 căn, thành phố sẽ phấn đấu đến năm sau đạt được chỉ tiêu này.', 'Bên cạnh các dự án nhà ở xã hội đang triển khai thực hiện, giao Sở Xây dựng chủ trì, phối hợp với các sở ngành căn cứ Nghị quyết số 98/2023/QH15 của Quốc hội về thí điểm một số cơ chế, chính sách đặc thù của TP.HCM và các quy định pháp luật có liên quan để nghiên cứu, tham mưu đề xuất thực hiện xây dựng nhà ở xã hội cho đối tượng có thu nhập trung bình (công chức, viên chức, lực lượng vũ trang…), đối tượng văn nghệ sỹ, vận động viên thể dục thể thao đạt thành tích cao và cơ chế chính sách tạo điều kiện cho doanh nghiệp Nhà nước tham gia thực hiện đầu tư xây dựng nhà ở xã hội cho các đối tượng nêu trên theo quy định.']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'filename': 'tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt'}, {'filename': 'tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt', 'source': './Dataset_economy/dm_BatDongSan/dia-oc/tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt', 'category': 'dm_BatDongSan'}, {'source': './Dataset_economy/dm_BatDongSan/dia-oc/tp-hcm-phat-trien-35-000-can-nha-o-xa-hoi-giai-doan-2021-2025.txt', 'category': 'dm_BatDongSan', 'filename': 'tp-hcm-phat-trien-35-000-can-nha-o-xa-hoi-giai-doan-2021-2025.txt'}, {'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/tp-hcm-phat-trien-35-000-can-nha-o-xa-hoi-giai-doan-2021-2025.txt', 'filename': 'tp-hcm-phat-trien-35-000-can-nha-o-xa-hoi-giai-doan-2021-2025.txt'}, {'filename': 'tp-hcm-se-co-them-gan-4-000-can-nha-o-xa-hoi.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-se-co-them-gan-4-000-can-nha-o-xa-hoi.txt'}, {'source': './Dataset_economy/dm_BatDongSan/dia-oc/tp-hcm-se-co-them-gan-4-000-can-nha-o-xa-hoi.txt', 'filename': 'tp-hcm-se-co-them-gan-4-000-can-nha-o-xa-hoi.txt', 'category': 'dm_BatDongSan'}, {'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt', 'category': 'dm_BatDongSan', 'filename': 'tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt'}, {'source': './Dataset_economy/dm_BatDongSan/dia-oc/tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt', 'category': 'dm_BatDongSan', 'filename': 'tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt'}]</t>
+          <t>[{'filename': 'tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt'}, {'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/tp-hcm-phat-trien-35-000-can-nha-o-xa-hoi-giai-doan-2021-2025.txt', 'filename': 'tp-hcm-phat-trien-35-000-can-nha-o-xa-hoi-giai-doan-2021-2025.txt'}, {'filename': 'tp-hcm-se-dieu-chinh-quy-dat-xay-nha-xa-hoi.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-se-dieu-chinh-quy-dat-xay-nha-xa-hoi.txt'}, {'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-se-co-them-gan-4-000-can-nha-o-xa-hoi.txt', 'filename': 'tp-hcm-se-co-them-gan-4-000-can-nha-o-xa-hoi.txt', 'category': 'dm_BatDongSan'}, {'filename': 'tp-hcm-kien-nghi-thanh-lap-doanh-nghiep-chuyen-biet-de-quan-ly-nha-o-xa-hoi.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-kien-nghi-thanh-lap-doanh-nghiep-chuyen-biet-de-quan-ly-nha-o-xa-hoi.txt'}, {'filename': 'tp-hcm-se-dieu-chinh-quy-dat-xay-nha-xa-hoi.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-se-dieu-chinh-quy-dat-xay-nha-xa-hoi.txt'}, {'category': 'dm_BatDongSan', 'filename': 'tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt'}, {'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-thi-truong-bat-dong-san-dang-co-dau-hieu-phuc-hoi-tich-cuc.txt', 'filename': 'tp-hcm-thi-truong-bat-dong-san-dang-co-dau-hieu-phuc-hoi-tich-cuc.txt'}, {'filename': 'lech-pha-nghen-von-va-vuong-mac-ve-the-che-khien-thi-truong-bat-dong-san-phuc-hoi-rat-cham.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/lech-pha-nghen-von-va-vuong-mac-ve-the-che-khien-thi-truong-bat-dong-san-phuc-hoi-rat-cham.txt'}, {'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt', 'category': 'dm_BatDongSan', 'filename': 'tp-hcm-chu-du-an-nha-o-xa-hoi-se-bi-xu-ly-neu-chay-i-nop-ho-so-xet-duyet-nguoi-mua.txt'}, {'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/keu-goi-dau-tu-du-an-nha-o-xa-hoi-cac-dia-phuong-dua-nhieu-uu-dai.txt', 'filename': 'keu-goi-dau-tu-du-an-nha-o-xa-hoi-cac-dia-phuong-dua-nhieu-uu-dai.txt'}, {'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt', 'category': 'dm_BatDongSan', 'filename': 'tp-hcm-day-nhanh-tien-do-cac-du-an-nha-o-xa-hoi.txt'}, {'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-se-dieu-chinh-quy-dat-xay-nha-xa-hoi.txt', 'filename': 'tp-hcm-se-dieu-chinh-quy-dat-xay-nha-xa-hoi.txt', 'category': 'dm_BatDongSan'}, {'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/nguoi-lao-dong-than-kho-mua-nha-o-xa-hoi.txt', 'filename': 'nguoi-lao-dong-than-kho-mua-nha-o-xa-hoi.txt'}, {'filename': 'tp-hcm-nhieu-giai-phap-ho-tro-du-an-nha-o-trung-cap-va-binh-dan.txt', 'source': './Dataset_economy/dm_BatDongSan/chinh-sach-bat-dong-san/tp-hcm-nhieu-giai-phap-ho-tro-du-an-nha-o-trung-cap-va-binh-dan.txt', 'category': 'dm_BatDongSan'}]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1506849315068493</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1505490160268411</v>
+        <v>1.829915582003345e-07</v>
       </c>
     </row>
     <row r="5">
@@ -612,38 +635,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Năm 2023 là một năm đầy khó khăn và thách thức đối với thị trường bất động sản Việt Nam. Từ tháng 5/2022 đến cuối năm 2023, thị trường bị phủ bởi "gam màu xám xịt, ảm đạm" với hàng nghìn dự án phải tạm dừng, nhiều doanh nghiệp bất động sản phải giải thể. Tuy nhiên, cuối năm 2023 có tín hiệu tích cực: quý 4/2023 cả nước có khoảng 7.000 sản phẩm mới, tổng nguồn cung đạt 21.774 sản phẩm, tăng 6% so với quý trước.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Thị trường bất động sản năm 2023 gặp nhiều khó khăn, đặc biệt là thiếu nguồn cung và mất cân đối cơ cấu sản phẩm. Phân khúc nhà ở trung, cao cấp và bất động sản du lịch dư thừa, trong khi nhà ở xã hội, nhà ở cho công nhân và nhà thương mại giá phù hợp thiếu gay gắt. Nhà ở thương mại hoàn thành 52 dự án với gần 16.000 căn, chưa bằng một nửa năm ngoái. Đến hết quý 3/2023, toàn thị trường có hơn 324.700 giao dịch, chỉ bằng 41% năm ngoái. Thị trường bắt đầu có dấu hiệu tích cực trở lại từ quý 3/2023.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Thị trường bất động sản năm 2023 đã gặp nhiều khó khăn ngay từ đầu năm, đặc biệt là tình trạng thiếu nguồn cung, thiếu cân đối trong cơ cấu sản phẩm, phổ biến là bất động sản ở các phân khúc nhà ở trung, cao cấp, bất động sản du lịch có biểu hiện dư thừa. Trong khi đó, nguồn cung phân khúc nhà ở xã hội, nhà ở cho công nhân và nhà ở thương mại giá phù hợp cho đối tượng thu nhập thấp, thu nhập trung bình thiếu gay gắt, không đáp ứng được nhu cầu của người dân. Tổng kết năm 2023, Bộ Xây dựng cho biết nguồn cung bất động sản năm 2023 tiếp tục hạn chế ở tất cả phân khúc, trong đó, nhà ở thương mại hoàn thành 52 dự án với gần 16.000 căn, chưa bằng một nửa năm ngoái. Đến hết quý 3/2023, toàn thị trường có hơn 324.700 giao dịch, chỉ bằng 41% năm ngoái.</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Năm 2023 là một năm đầy khó khăn và thách thức đối với thị trường bất động sản Việt Nam. Theo đánh giá của TS. Nguyễn Văn Đính, Phó Chủ tịch Hiệp hội Bất động sản Việt Nam, thị trường bất động sản năm 2023 đối mặt với nhiều khó khăn và thách thức. Mức độ quan tâm của người mua trên thị trường giảm so với các năm trước, tuy nhiên, nếu xét theo tháng thì cũng bắt đầu gia tăng.
-Tuy nhiên, với xu hướng lãi suất giảm và một vài tín hiệu tích cực, kịch bản thị trường trong năm 2024 có thể sẽ có những gam màu tươi sáng hơn. Hội nghị Bất động sản Việt Nam năm 2023 với chủ đề “Định hình thị trường trong tương lai” cũng đã đưa ra những dự báo và định hình về tương lai của thị trường bất động sản.
-Theo các diễn giả tại hội nghị, thị trường bất động sản trong tương lai sẽ được định hình bởi nhiều yếu tố, bao gồm cả sự thay đổi của lãi suất, chính sách và nhu cầu của người mua. Với những tín hiệu tích cực và sự điều chỉnh của thị trường, có thể hy vọng rằng thị trường bất động sản sẽ "ấm" hơn trong năm 2024 và có thể sẽ là năm cuối cùng trong quá trình "vượt chướng ngại vật" của thị trường bất động sản Việt Nam.</t>
+          <t>Năm 2023 là một năm đầy khó khăn và thách thức đối với thị trường bất động sản Việt Nam. Thị trường bất động sản chưa có tăng trưởng đột biến, nhưng chắc chắn có tăng trưởng tốt hơn so với cùng kỳ quý 4/2022. Tuy nhiên, thị trường vẫn còn tồn tại ở trạng thái "âm" như thời kỳ vừa qua.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Năm 2024: Thị trường bất động sản sẽ “ấm” hơn?. Nhiều chuyên gia nhận định năm 2024 sẽ là năm cuối cùng trong quá trình “vượt chướng ngại vật” của thị trường bất động sản Việt Nam. Bức tranh toàn cảnh thị trường này có thể thay đổi theo chiều hướng tích cực hơn, thay vì tồn tại ở trạng thái “âm” như thời kỳ vừa qua.... Nhìn lại diễn biến của thị trường bất động sản trong năm qua, TS. Nguyễn Văn Đínhnă, Phó Chủ tịch Hiệp hội Bất động sản Việt Nam, đánh giá năm 2023 là một năm đầy khó khăn và thách thức đối với nền kinh tế nói chung và thị trường bất động sản Việt Nam nói riêng.', 'Năm 2024: Thị trường bất động sản sẽ “ấm” hơn?. Nhiều chuyên gia nhận định năm 2024 sẽ là năm cuối cùng trong quá trình “vượt chướng ngại vật” của thị trường bất động sản Việt Nam. Bức tranh toàn cảnh thị trường này có thể thay đổi theo chiều hướng tích cực hơn, thay vì tồn tại ở trạng thái “âm” như thời kỳ vừa qua.... Nhìn lại diễn biến của thị trường bất động sản trong năm qua, TS. Nguyễn Văn Đínhnă, Phó Chủ tịch Hiệp hội Bất động sản Việt Nam, đánh giá năm 2023 là một năm đầy khó khăn và thách thức đối với nền kinh tế nói chung và thị trường bất động sản Việt Nam nói riêng.', 'Hiện nay, mức độ quan tâm của người mua trên thị trường dù so với các năm trước vẫn đang giảm, tuy nhiên, nếu xét theo tháng thì cũng bắt đầu gia tăng. Một vài tín hiệu đó cộng với xu hướng lãi suất giảm, hứa hẹn kịch bản thị trường trong năm 2024 có thể sẽ có những gam màu tươi sáng hơn.\nNói đến kịch bản của thị trường, tôi được biết, mới đây, batdongsan.com.vn (PropertyGuru Việt Nam) đã tổ chức Hội nghị Bất động sản Việt Nam năm 2023 với chủ đề “Định hình thị trường trong tương lai”. Theo các diễn giả tại hội nghị, tương lai thị trường bất động sản sẽ được định hình như thế nào?']</t>
+          <t>['Diễn đàn được tổ chức với các chủ đề chính: Toàn cảnh thị trường bất động sản Việt Nam năm 2023: Thể chế và sự tác động tới kinh tế Việt Nam năm 2024; Thị trường bất động sản Việt Nam 2024 - Cơ hội và thách thức; Xu hướng bất động sản thế giới 2024; Kịch bản của thị trường bất động sản Việt Nam năm 2024; Dòng tiền cho phát triển, đầu tư và tiêu dùng bất động sản năm 2024; Khơi thông dòng vốn cho thị trường bất động sản...', 'VRES 2023 sẽ tiết lộ những xu hướng mới của ngành bất động sản. Hội nghị Bất động sản Việt Nam - VRES 2023 do Batdongsan.com.vn tổ chức vào tháng 12 tới đây với chủ đề “Định hình tương lai” sẽ tập trung giải đáp những vấn đề đang được toàn thị trường quan tâm.... Hội nghị Bất động sản Việt Nam (Vietnam Real Estate Summit - VRES 2023) sẽ tái hiện bức tranh thị trường địa ốc năm 2023 và cung cấp những xu hướng mới nhất của ngành bất động sản.', 'Tình hình tài chính thế giới\xa0năm 2023, dự báo 2024. Dự báo năm 2024, lãi suất toàn cầu có thể chứng kiến những bước giảm dần, giúp khơi dậy dòng vốn đi vay và đầu tư toàn cầu, góp phần thúc đẩy kinh tế thế giới bước qua giai đoạn trầm lắng.... Tình hình thị trường tài chính – tiền tệ toàn cầu năm 2023 tiếp tục chứng kiến nhiều biến động. Tâm điểm của năm 2023 vẫn là những diễn biến gia tăng của lãi suất và sự bất ổn của thị trường tài chính ở nhiều nền kinh tế', 'Năm 2024: Thị trường bất động sản sẽ “ấm” hơn?. Nhiều chuyên gia nhận định năm 2024 sẽ là năm cuối cùng trong quá trình “vượt chướng ngại vật” của thị trường bất động sản Việt Nam. Bức tranh toàn cảnh thị trường này có thể thay đổi theo chiều hướng tích cực hơn, thay vì tồn tại ở trạng thái “âm” như thời kỳ vừa qua.... Nhìn lại diễn biến của thị trường bất động sản trong năm qua, TS. Nguyễn Văn Đínhnă, Phó Chủ tịch Hiệp hội Bất động sản Việt Nam, đánh giá năm 2023 là một năm đầy khó khăn và thách thức đối với nền kinh tế nói chung và thị trường bất động sản Việt Nam nói riêng.', 'Dự báo tại thời điểm quý 4/2023 thị trường bất động sản chưa có tăng trưởng đột biến, nhưng chắc chắn có tăng trưởng tốt hơn so với cùng kỳ quý 4/2022. Với nhiều thông tin và chuyển biến tích cực từ cuối quý 3/2023 thì hoàn toàn có cơ sở để dự báo thị trường bất động sản ấm dần lên từ cuối quý 4/2023, đồng thời phục hồi rõ nét hơn vào năm 2024.', 'Những yếu tố dẫn đến tăng trưởng trong năm 2023 đang được tiếp diễn sang năm 2024. Theo đó, kinh tế trong nước đang trên đà phục hồi. Bối cảnh kinh tế trong nước và thế giới năm 2024 được dự báo mặc dù không quá thuận lợi nhưng sẽ không xấu hơn năm 2023 và bắt đầu có xu hướng được cải thiện. Từ những xu thế phát triển kinh tế của năm 2023, có thể trong năm 2024 sẽ tiếp tục đà đi lên.\nThứ hai, chúng ta nhìn thấy nhiều cơ hội nếu nỗ lực, tích cực khai thác sẽ có khả năng tiếp cận. Điểm thành công nhất trong năm 2023 là duy trì cân bằng môi trường kinh tế vĩ mô để huy động các nguồn lực cho phát triển sản xuất, thu hút nguồn đầu tư nước ngoài.', 'Năm 2024 được xác định là năm có ý nghĩa quan trọng trong việc thực hiện thắng lợi Nghị quyết Đại hội XIII của Đảng. Dự báo những năm tới, tính chất bất ổn và bất định của tình hình quốc tế sẽ còn tiếp diễn, có thể xuất hiện những nhân tố mới, phức tạp hơn. Ở trong nước, kinh tế- xã hội tiếp tục phục hồi và phát triển, song còn nhiều khó khăn, thách thức.\nTuy nhiên, cơ đồ tiềm lực, vị thế, uy tín quốc tế của đất nước và những thành quả đối ngoại đạt được trong năm 2023 là nền tảng vững chắc cho đối ngoại và ngoại giao Việt Nam vượt qua khó khăn, thử thách để đóng góp vào thực hiện thắng lợi Nghị quyết Đại hội XIII của Đảng.', 'Hiện nay, mức độ quan tâm của người mua trên thị trường dù so với các năm trước vẫn đang giảm, tuy nhiên, nếu xét theo tháng thì cũng bắt đầu gia tăng. Một vài tín hiệu đó cộng với xu hướng lãi suất giảm, hứa hẹn kịch bản thị trường trong năm 2024 có thể sẽ có những gam màu tươi sáng hơn.\nNói đến kịch bản của thị trường, tôi được biết, mới đây, batdongsan.com.vn (PropertyGuru Việt Nam) đã tổ chức Hội nghị Bất động sản Việt Nam năm 2023 với chủ đề “Định hình thị trường trong tương lai”. Theo các diễn giả tại hội nghị, tương lai thị trường bất động sản sẽ được định hình như thế nào?', 'Nhận định về xu thế năm 2024, các chuyên gia đều cho rằng trong năm 2024, tình hình bất động sản Việt Nam sẽ thay đổi dựa vào tình hình kinh tế thế giới, điều hành kinh tế vĩ mô cũng như kết quả cải thiện thể chế, pháp lý liên quan với sự tham gia “thực sự” của chính quyền các cấp. Đến nay, chưa thể khẳng định thị trường sẽ đạt được các kết quả rực rỡ trong năm 2024. Nhưng có nhiều dấu hiệu tích cực đang tạo “nền móng” cho chu kỳ phát triển mới của thị trường bất động sản Việt Nam.', '2024: Thị trường bất động sản sẽ có bước chuyển mình. Tuy chưa thể khẳng định rằng thị trường sẽ đạt được các kết quả rực rỡ nhưng chắc chắn năm 2024 chính là “viên gạch đầu tiên” xây nền móng cho chu kỳ phát triển mới của thị trường bất động sản Việt Nam.... “Trong năm 2024, cầu nhà ở tại các đô thị lớn vẫn rất mạnh, sẵn sàng hấp thụ các sản phẩm chất lượng, giá hợp lý. Cầu thực vẫn duy trì mức ổn định; cầu đầu tư để tích lũy, để tạo dòng tiền thì cần thêm thời gian để hồi phục, khi niềm tin của khách hàng và tình hình kinh tế chung khởi sắc hơn”. Đây là nhận định chung của các đại biểu tại “Diễn đàn thị trường bất động sản Việt Nam 2024 - Vượt qua thách thức” do Hội Môi giới bất động sản Việt Nam (VARS) vừa tổ chức.', '. . Năm 2023 khép lại với rất nhiều biến động khó lường của nền kinh tế thế giới cũng như Việt Nam. Nhìn lại bức tranh kinh tế năm 2023, ông đánh giá như thế nào về tình hình kinh tế Việt Nam trong bối cảnh toàn cầu đầy thức thách, thưa ông?\nSuy thoái kinh tế toàn cầu và tác động của nó đến nhu cầu xuất khẩu của Việt Nam đã khiến năm 2023 trở thành một trong những năm thách thức nhất của thế kỷ XXI, sau hai năm Covid-19 2020 và 2021 vô cùng khó khăn.', 'Thị trường bất động sản sẽ ấm dần trong năm 2024. Thị trường bất động sản quý 4/2023 sẽ là bước đệm cho sự chuyển mình vào năm 2024. Bức tranh toàn cảnh thị trường chắc chắn có thêm nhiều điểm sáng mới. Đặc biệt là khu vực đang còn dư địa phát triển, có quy hoạch đồng bộ, hiện đại, hạ tầng được quan tâm, chú trọng đầu tư, mặt bằng giá chưa cao…. Tại buổi công bố báo cáo “Đánh giá tiến trình phục hồi thị trường bất động sản Việt Nam quý 3/2022 và dự báo tình hình thị trường quý 4/2023”, Hội Môi giới bất động sản (VARS) nhận định thị trường bất động sản hiện nay dù chưa đủ lực để “vượt dốc”, nhưng phần nào đã thoát khỏi trạng thái “mất phanh”.', '. . Thưa Bộ trưởng, chúng ta đã bước vào năm Giáp Thìn 2024 với những cơ hội mới, vận hội mới. Tuy vậy, khó khăn sẽ tiếp tục bủa vây nền kinh tế và ảnh hưởng tới khu vực doanh nghiệp. Thực tế cho thấy một trong những vấn đề nổi lên trong năm 2023 là khả năng hấp thụ vốn yếu của doanh nghiệp. Từ góc độ người thiết kế chính sách, theo Bộ trưởng, đâu là giải pháp để trợ lực cho doanh nghiệp tiếp tục vượt qua những “cơn gió ngược” trong năm 2024?', 'Ngoài ra, tổng giá trị các trái phiếu có rủi ro cao chậm thanh toán gốc, lãi đến hạn theo các tiêu chí của VIS Rating có xu hướng giảm rõ rệt trong năm 2024 từ mức cao nhất lên tới 57 nghìn tỷ phát sinh mới/quý trong năm 2023 xuống mức dự kiến khoảng 9 tới 13 nghìn tỷ đồng/quý trong năm 2024.\nVới diễn biến như trên, theo ông, triển vọng thị trường trái phiếu năm 2024 sẽ như thế nào? Liệu thị trường đã bước qua “đáy” khó khăn?\nTừ báo cáo Góc nhìn thị trường TPDN tháng 10/2023 do VIS Rating phát hành, thị trường TPDN sẽ tiếp tục phục hồi trong năm 2024 nếu nhìn từ ba góc độ: quản lý, quy mô và chất lượng.', 'Chúng tôi kỳ vọng nền kinh tế sẽ tiếp tục tăng trưởng và cải thiện trong năm nay, chủ yếu vào nửa cuối năm. Chúng ta sẽ thấy sự tăng trưởng nhiều hơn và chúng tôi kỳ vọng động lực từ người tiêu dùng trong nước sẽ tiếp tục mạnh mẽ trong năm 2024. Nhưng vẫn còn rất nhiều biến số trong thị trường mà chúng tôi đang theo dõi rất chặt chẽ với khách hàng của mình để xem năm 2024 sẽ diễn ra như thế nào”.\nVnEconomy\xa016/01/2024 15:00']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'filename': 'nam-2024-thi-truong-bat-dong-san-se-am-hon.txt', 'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/nam-2024-thi-truong-bat-dong-san-se-am-hon.txt', 'category': 'dm_BatDongSan'}, {'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/dia-oc/nam-2024-thi-truong-bat-dong-san-se-am-hon.txt', 'filename': 'nam-2024-thi-truong-bat-dong-san-se-am-hon.txt'}, {'category': 'dm_BatDongSan', 'filename': 'thi-truong-bat-dong-san-sap-buoc-sang-diem-dao-chieu.txt', 'source': './Dataset_economy/dm_BatDongSan/dia-oc/thi-truong-bat-dong-san-sap-buoc-sang-diem-dao-chieu.txt'}]</t>
+          <t>[{'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/van-nhieu-trien-vong-cho-dau-tu-bat-dong-san-viet-nam-2024.txt', 'category': 'dm_BatDongSan', 'filename': 'van-nhieu-trien-vong-cho-dau-tu-bat-dong-san-viet-nam-2024.txt'}, {'filename': 'vres-2023-se-tiet-lo-nhung-xu-huong-moi-cua-nganh-bat-dong-san.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/dia-oc/vres-2023-se-tiet-lo-nhung-xu-huong-moi-cua-nganh-bat-dong-san.txt'}, {'source': './Dataset_economy/dm_TaiChinh/tai-chinh/tinh-hinh-tai-chinh-the-gioinam-2023-du-bao-2024.txt', 'filename': 'tinh-hinh-tai-chinh-the-gioinam-2023-du-bao-2024.txt', 'category': 'dm_TaiChinh'}, {'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/nam-2024-thi-truong-bat-dong-san-se-am-hon.txt', 'filename': 'nam-2024-thi-truong-bat-dong-san-se-am-hon.txt', 'category': 'dm_BatDongSan'}, {'category': 'dm_BatDongSan', 'filename': 'thoi-diem-nay-rat-thuan-loi-de-ban-thao-van-de-hoi-phuc-thi-truong.txt', 'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/thoi-diem-nay-rat-thuan-loi-de-ban-thao-van-de-hoi-phuc-thi-truong.txt'}, {'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/dia-oc/ky-vong-cua-dai-bieu-quoc-hoi-ve-muc-tieu-tang-truong-nam-2024.txt', 'filename': 'ky-vong-cua-dai-bieu-quoc-hoi-ve-muc-tieu-tang-truong-nam-2024.txt'}, {'source': './Dataset_economy/dm_TieuDiem/tiep-tuc-phat-huy-ban-sacngoai-giao-cay-tre-viet-nam.txt', 'category': 'dm_TieuDiem', 'filename': 'tiep-tuc-phat-huy-ban-sacngoai-giao-cay-tre-viet-nam.txt'}, {'filename': 'thi-truong-bat-dong-san-sap-buoc-sang-diem-dao-chieu.txt', 'source': './Dataset_economy/dm_BatDongSan/dia-oc/thi-truong-bat-dong-san-sap-buoc-sang-diem-dao-chieu.txt', 'category': 'dm_BatDongSan'}, {'filename': 'nam-2024-thi-truong-bat-dong-san-se-am-hon.txt', 'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/nam-2024-thi-truong-bat-dong-san-se-am-hon.txt', 'category': 'dm_BatDongSan'}, {'filename': '2024-thi-truong-bat-dong-san-se-co-buoc-chuyen-minh.txt', 'category': 'dm_BatDongSan', 'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/2024-thi-truong-bat-dong-san-se-co-buoc-chuyen-minh.txt'}, {'filename': 'thuc-day-noi-luc-duy-tri-muc-tang-truong-nhanh.txt', 'source': './Dataset_economy/dm_TaiChinh/tai-chinh/thuc-day-noi-luc-duy-tri-muc-tang-truong-nhanh.txt', 'category': 'dm_TaiChinh'}, {'source': './Dataset_economy/dm_BatDongSan/thi-truong-bat-dong-san/thi-truong-bat-dong-san-se-am-dan-trong-nam-2024.txt', 'category': 'dm_BatDongSan', 'filename': 'thi-truong-bat-dong-san-se-am-dan-trong-nam-2024.txt'}, {'filename': 'tro-luc-de-doanh-nghiep-vung-vang-vuot-thach-thuc.txt', 'category': 'dm_TieuDiem', 'source': './Dataset_economy/dm_TieuDiem/tro-luc-de-doanh-nghiep-vung-vang-vuot-thach-thuc.txt'}, {'category': 'dm_TaiChinh', 'filename': 'trien-vong-phuc-hoi-thi-truong-trai-phieu-doanh-nghiep.txt', 'source': './Dataset_economy/dm_TaiChinh/tai-chinh/trien-vong-phuc-hoi-thi-truong-trai-phieu-doanh-nghiep.txt'}, {'source': './Dataset_economy/dm_TieuDiem/ky-vong-kinh-te-viet-nam-tiep-tuc-but-pha.txt', 'filename': 'ky-vong-kinh-te-viet-nam-tiep-tuc-but-pha.txt', 'category': 'dm_TieuDiem'}]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.3125</v>
+        <v>0.06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1373626373626374</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1908396946564885</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1462961041554924</v>
+        <v>0.09759454111826581</v>
       </c>
     </row>
     <row r="6">
@@ -654,41 +679,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kinh tế Việt Nam năm 2023 đạt mức tăng trưởng khoảng trên 5%. Tốc độ tăng trưởng tăng theo từng quý: Quý I tăng 3,41%; quý II tăng 4,25%; quý III tăng 5,47%; quý IV tăng 6,72%. Ba động lực tăng trưởng chính là đầu tư công, xuất khẩu và tiêu dùng.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>GDP Việt Nam năm 2023 ước tăng 5,05% so với năm trước. GDP quý 4/2023 tăng 6,72% so với cùng kỳ, là mức tăng trưởng quý 4 cao nhất kể từ năm 2019. Mặc dù không đạt mục tiêu 6,5% của Chính phủ và Quốc hội, Việt Nam vẫn thuộc nhóm nền kinh tế có mức tăng trưởng cao nhất khu vực và thế giới. Quy mô GDP năm 2023 ước đạt 10.221,8 nghìn tỷ đồng, tương đương 430 tỷ USD. GDP bình quân đầu người đạt 4.284 USD, tăng 160 USD so với năm 2022.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vượt qua cơn gió ngược toàn cầu, GDP năm 2023 ước tăng 5,05%. Với mức tăng 6,72% đạt được trong quý 4/2023, tăng trưởng GDP cả năm 2023 của Việt Nam theo ước tính của Tổng cục Thống kê đạt 5,05%. Mặc dù tăng trưởng GDP cả năm 2023 không đạt mục tiêu đề ra (6,5%) nhưng là kết quả tích cực và thuộc nhóm các nền kinh tế có mức tăng trưởng cao nhất khu vực và thế giới. GDP quý 4/2023 ước tính tăng 6,72% so với cùng kỳ năm trước, cao hơn quý 4 các năm 2012-2013 và 2020-2022, với xu hướng tích cực quý sau cao hơn quý trước (quý 1 tăng 3,41%, quý 2 tăng 4,25%, quý 3 tăng 5,47%). Quy mô GDP theo giá hiện hành năm 2023 ước đạt 10.221,8 nghìn tỷ đồng, tương đương 430 tỷ USD. GDP bình quân đầu người năm 2023 ước đạt 101,9 triệu đồng/người, tương đương 4.284 USD, tăng 160 USD so với năm 2022.</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Năm 2023, kinh tế Việt Nam đạt mức tăng trưởng khoảng trên 5%. Đây là một con số ấn tượng, đặc biệt trong bối cảnh nhiều khó khăn và thách thức. Để duy trì và tăng cường tăng trưởng kinh tế trong năm 2024, Việt Nam nên tiếp tục chú trọng vào các động lực tăng trưởng đã đóng vai trò quan trọng trong năm 2023, bao gồm đầu tư công, xuất khẩu và tiêu dùng.
-Đầu tư công đã chứng minh là một động lực quan trọng trong việc kích thích tăng trưởng kinh tế, đặc biệt là trong giai đoạn khó khăn. Việc tiếp tục đầu tư vào các dự án cơ sở hạ tầng, giáo dục và y tế sẽ không chỉ giúp duy trì tăng trưởng mà còn cải thiện chất lượng cuộc sống cho người dân.
-Xuất khẩu cũng là một lĩnh vực quan trọng, giúp Việt Nam tăng cường vị thế trên thị trường quốc tế và thu hút đầu tư nước ngoài. Việc đa dạng hóa thị trường xuất khẩu và nâng cao chất lượng sản phẩm sẽ giúp Việt Nam tận dụng được các cơ hội thương mại mới và tăng cường khả năng cạnh tranh.
-Tiêu dùng cũng là một yếu tố quan trọng, vì nó chiếm một phần lớn trong tổng sản phẩm quốc nội (GDP) của Việt Nam. Việc tăng cường tiêu dùng sẽ giúp kích thích tăng trưởng kinh tế và tạo việc làm.
-Bên cạnh đó, năm 2024 cũng cần quan tâm đến các động lực tăng trưởng mới, như đầu tư vào công nghệ và đổi mới sáng tạo. Việc áp dụng công nghệ mới và phát triển các ngành công nghiệp mới sẽ giúp Việt Nam tăng cường khả năng cạnh tranh và tận dụng được các cơ hội mới trong nền kinh tế số.
-Tóm lại, để duy trì và tăng cường tăng trưởng kinh tế trong năm 2024, Việt Nam nên tiếp tục chú trọng vào các động lực tăng trưởng đã đóng vai trò quan trọng trong năm 2023, bao gồm đầu tư công, xuất khẩu và tiêu dùng, đồng thời quan tâm đến các động lực tăng trưởng mới như đầu tư vào công nghệ và đổi mới sáng tạo.</t>
+          <t>Tổng sản phẩm trên địa bàn GRDP năm 2023 ước tăng 6,27%.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Năm 2024, những động lực tăng trưởng kinh tế mới. Ba động lực tăng trưởng kinh tế năm 2023 là đầu tư công, xuất khẩu và tiêu dùng. Vậy năm 2024 cần phải tiếp tục quan tâm tới động lực nào hay có động lực mới nào?.... \nBên lề Diễn đàn \xa0Kịch bản Kinh tế Việt Nam 2024 ngày 11/1/2024, bà Dorsati Madani - Chuyên gia kinh tế cao cấp của WB đã trả lời phỏng vấn VnEconomy xung quanh câu chuyện tăng trưởng kinh tế Việt Nam 2024.\nThưa bà, kinh tế Việt Nam năm 2023 tuy gặp nhiều khó khăn nhưng vẫn đạt mức tăng tưởng khoảng trên 5%.Vậy năm 2024, Việt Nam nên chú trọng vào những động lực tăng trưởng kinh tế nào?', 'Năm 2024, những động lực tăng trưởng kinh tế mới. Ba động lực tăng trưởng kinh tế năm 2023 là đầu tư công, xuất khẩu và tiêu dùng. Vậy năm 2024 cần phải tiếp tục quan tâm tới động lực nào hay có động lực mới nào?.... \nBên lề Diễn đàn \xa0Kịch bản Kinh tế Việt Nam 2024 ngày 11/1/2024, bà Dorsati Madani - Chuyên gia kinh tế cao cấp của WB đã trả lời phỏng vấn VnEconomy xung quanh câu chuyện tăng trưởng kinh tế Việt Nam 2024.\nThưa bà, kinh tế Việt Nam năm 2023 tuy gặp nhiều khó khăn nhưng vẫn đạt mức tăng tưởng khoảng trên 5%.Vậy năm 2024, Việt Nam nên chú trọng vào những động lực tăng trưởng kinh tế nào?']</t>
+          <t>['e-Conomy SEA 2023: Kinh tế số Việt Nam tăng trưởng nhanh nhất Đông Nam Á. Kinh tế số Việt Nam có tốc độ tăng trưởng kép hàng năm (CAGR) giai đoạn 2022-2023 là 19%, dự báo tổng giá trị hàng hóa tăng từ 30 tỷ USD năm 2023 lên 45 tỷ USD vào năm 2025, tăng nhanh nhất Đông Nam Á…. Ngày 6/11, Google, Temasek và Bain &amp; Company công bố báo cáo nền kinh tế số của sáu quốc gia thuộc khu vực Đông Nam Á (e-Conomy SEA 2023), bao gồm Indonesia, Malaysia, Philippines, Singapore, Thái Lan và Việt Nam.', '.750 tỷ đồng, tăng 0,5% so với năm 2022 và đạt 140% kế hoạch năm 2023. Sản lượng bưu chính năm 2023 ước đạt 2,5 tỷ bưu gửi, tăng 32,3% so với năm 2022.', 'Tại Việt Nam, theo Bộ Thông tin &amp; Truyền thông, doanh thu lĩnh vực an toàn thông tin năm 2023 đạt 5.522 tỷ đồng, tăng 20% so với năm 2022. Các doanh nghiệp hoạt động trong lĩnh vực an ninh mạng đang tăng trưởng, với hệ sinh thái sản phẩm, dịch vụ ngày càng hoàn thiện và dần khẳng định tên tuổi cũng dần chiếm lĩnh thị trường trong nước.', '"Với tầm nhìn Việt Nam đang phấn đấu trở thành nước phát triển có thu nhập cao vào năm 2045, chúng ta có thể trông đợi quy mô kinh tế Việt Nam sẽ đạt mức 1.000 tỷ USD trong vòng 20 năm tới", Chủ tịch VCCI kỳ vọng.\nTheo lãnh đạo VCCI, nếu Việt Nam duy trì mức tăng trưởng kinh tế từ 6%-6,5% trong một năm trong giai đoạn sắp tới thì tới năm 2045, theo tính toán GDP của Việt Nam sẽ vượt mức 1500 tỷ USD và như vậy Việt Nam sẽ có vị thế mới trong nền kinh tế thế giới.\n“Tương lai này cho thấy hợp tác kinh doanh, đầu tư giữa các doanh nghiệp Việt Nam và Hoa Kỳ có rất nhiều dư địa và cơ hội tuyệt với để tăng trưởng và phát triển”, ông Phạm Tấn Công nhấn mạnh.', '. Tuy nhiên, nếu xem xét trong điều kiện, hoàn cảnh cụ thể của năm 2023 thì đây được coi là một thành công đáng khích lệ khi Việt Nam vẫn nằm trong nhóm 20 quốc gia có tốc độ tăng trưởng GDP cao nhất thế giới năm 2023.', 'Báo cáo thường niên kinh tế số e-Connomy SEA do Google và Temasek nghiên cứu công bố tốc độ tăng trưởng kinh tế số Việt Nam năm 2022 là 28%, dẫn đầu trong các quốc gia Đông Nam Á. Năm 2022 có hơn 1.400 doanh nghiệp công nghệ số Việt Nam có doanh thu từ thị trường nước ngoài, tăng gần 20% so với năm 2021.\nHạ tầng số được tăng cường đầu tư, nhiều nền tảng số tiếp tục được phát triển. 60 nền tảng, ứng dụng di động phục vụ người dân của Việt Nam có trên 1 triệu người dùng hàng tháng, tăng gần 10% so với cùng kỳ năm 2022. Tổng số lượng người dùng hàng tháng trên các ứng dụng di động Việt Nam trong 6 tháng đầu năm 2023 vượt mức 500 triệu, tăng gần 16% so với cùng kỳ năm 2022.', 'Tổng sản phẩm trên địa bàn GRDP năm 2023 ước tăng 6,27%; thu ngân sách Nhà nước trên địa bàn năm 2023 ước đạt trên 400.000 tỷ đồng, bằng 113,5% dự toán năm và tăng 20% so với năm 2022. Tổng mức bán lẻ hàng hóa và doanh thu dịch vụ tiêu dùng ước đạt 776.000 tỷ đồng, tăng 10,4% so với năm 2022. Thu hút đầu tư nước ngoài tăng khá, ước đạt 2,9 tỷ USD, tăng 62% so với năm 2022...\n“Có được kết quả này là sự đóng góp không nhỏ của cộng đồng doanh nghiệp, doanh nhân - lực lượng sản xuất chủ yếu của nền kinh tế, đóng vai trò hết sức quan trọng trong sự nghiệp xây dựng và phát triển của Thành phố. Tiến trình phát triển của đội ngũ doanh nhân gắn bó mật thiết với công cuộc đổi mới của Thủ đô”, ông Quyền nhấn mạnh.', 'Điểm sáng của kinh tế Việt Nam được ông Andy Ho dẫn chứng dựa trên tăng trưởng GDP. Cụ thể, trong năm 2022 mức tăng trưởng GDP của Việt Nam đạt hơn 8%, năm 2023 dự báo đạt 4,7%; bình quân 2 năm thì tốc độ tăng trưởng là 6,5%. Đây là tốc độ cao trên thế giới, và là tốc độ trung bình của Việt Nam trong khá nhiều năm. Trong 2 năm dịch Covid-19 là 2020 và 2021, nhiều nước và khu vực trên thế giới bị tăng trưởng âm, nhưng Việt Nam vẫn tăng trưởng dương.', 'Năm 2023, trong "bức tranh kinh tế" tỉnh Nghệ An đó có 2 điểm sáng là thu hút FDI và kim ngạch xuất khẩu. Tốc độ tăng trưởng tổng sản phẩm trên địa bàn tỉnh (GRDP) này năm 2023 ước đạt 7,14%. Thu ngân sách nhà nước ước thực hiện gần 18 nghìn tỷ đồng, đạt hơn 112% dự toán HĐND tỉnh giao.\nTính đến ngày 20/11/2023, tổng số vốn đầu tư cấp mới và tăng thêm trên 46 nghìn tỷ đồng, gấp 1,38 lần mục tiêu đề ra. Năm 2023, tỉnh Nghệ An tiếp tục nằm trong tốp 10 địa phương thu hút đầu tư FDI lớn nhất cả nước.', 'Từ diễn biến của 7 tháng năm 2023 và các yếu tố tác động, xuất khẩu gạo của Việt Nam có 2 kịch bản dự báo cho cả năm 2023.\nKịch bản 1 (kịch bản thấp): nếu bình quân 1 tháng trong 5 tháng còn lại đạt bằng mức của tháng 7, 5 tháng còn lại sẽ đạt 1.625 triệu USD, cộng với 7 tháng đầu năm thì cả năm 2023 sẽ đạt trên 4,2 tỷ USD, tăng 21,8%, hay tăng 753 triệu USD so với năm 2022, cao nhất từ trước đến nay, vượt xa so với kỷ lục đã đạt được vào năm 2012.', 'Năm 2023 là năm thắng lợi lớn của Việt Nam trên lĩnh vực đối ngoại, góp phần tạo thêm thế và lực mới cũng như cơ hội mới cho đất nước trong hành trình hội nhập để phát triển theo mục tiêu mà Đại hội đại biểu toàn quốc lần thứ XIII của Đảng đã hoạch định, không chỉ cho kế hoạch kinh tế - xã hội 5 năm (2021-2025) mà cả cho chiến lược 10 năm (2021-2030), với tầm nhìn đến năm 2045 và xa hơn, được đánh dấu bằng hai mốc kỷ niệm lớn mang tầm thế kỷ: kỷ niệm 100 năm thành lập Đảng Cộng sản Việt Nam (1930 – 2030) và kỷ niệm 100 năm thành lập nước Việt Nam Dân chủ Cộng hòa, nay là Cộng hòa Xã hội chủ nghĩa Việt Nam (1945-2045).\nVị thế và tiềm lực mới sẽ tạo thêm động lực để Việt Nam vững tin hội nhập và phát triển.', 'Với tốc độ tăng trưởng tích cực và toàn diện trong mọi lĩnh vực trong 9 tháng đầu năm 2023, cùng những nỗ lực trong mọi lĩnh vực anh sinh xã hội, thu hút đầu tư, đồng hành cùng doanh nghiệp… có thể thấy rằng mục tiêu tăng trưởng kinh tế trên 11% năm 2023 đã ở trong tầm tay của Quảng Ninh.', 'Nhờ thực hiện đường lối đổi mới, nền kinh tế bắt đầu phát triển và tăng trưởng liên tục với tốc độ tương đối cao trong suốt 40 năm qua với mức tăng trưởng trung bình gần 7% mỗi năm. Quy mô GDP không ngừng được mở rộng, năm 2023 đạt khoảng 430 tỷ USD, trở thành nền kinh tế lớn thứ 5 trong ASEAN và thứ 35 trong 40 nền kinh tế lớn nhất thế giới. GDP bình quân đầu người tăng 58 lần, lên mức khoảng 4.300 USD năm 2023; Việt Nam đã ra khỏi nhóm các nước có thu nhập thấp từ năm 2008 và sẽ trở thành nước có thu nhập trung bình cao vào năm 2030 (khoảng 7.500 USD).', 'Theo báo cáo Tăng trưởng Trí tuệ nhân tạo tạo sinh 2023 của Bloomberg Intelligence, trong 10 năm tới thị trường GenAI sẽ phát triển mạnh mẽ từ quy mô 40 tỷ USD năm 2022 lên mốc 1.300 tỷ USD vào 2032, tăng 32,5 lần. Tỷ suất tăng trưởng kép hàng năm (Compound Annual Growth Rate - CAGR) được dự báo có thể đạt 42%, theo Bloomberg. Trong nhận định đưa ra cuối năm 2023, IDC ước tính trong 10 năm tới GenAI sẽ đóng góp gần 10.000 tỷ USD vào GDP toàn cầu.', 'Điển hình như chuyển dịch năng lượng tích cực, trong đó năng lượng tái tạo chiếm khoảng 27,1% trong tổng công suất và 13,7% về sản lượng trong hệ thống điện toàn quốc. So với mục tiêu đề ra đến năm 2030 đạt khoảng 15-20% và năm 2045 đạt khoảng 25-30% trong Nghị quyết số 55-NQ/TW, công suất các nguồn năng lượng tái tạo có thể đạt được.\nTỷ trọng kinh tế số trong GDP Việt Nam đến cuối năm 2023 đạt 16,5%. Tín dụng xanh tăng trưởng 20%/năm từ năm 2017 đến nay và chiếm gần 4,5% dư nợ của nền kinh tế năm 2023. Giai đoạn 2019-2023, Việt Nam đã phát hành khoảng 1,16 tỷ USD trái phiếu xanh.']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'category': 'dm_DoanhNghiep', 'source': './Dataset_economy/dm_DoanhNghiep/nhip-cau-doanh-nghiep/nam-2024-nhung-dong-luc-tang-truong-kinh-te-moi.txt', 'filename': 'nam-2024-nhung-dong-luc-tang-truong-kinh-te-moi.txt'}, {'category': 'dm_DauTu', 'filename': 'nam-2024-nhung-dong-luc-tang-truong-kinh-te-moi.txt', 'source': './Dataset_economy/dm_DauTu/dau-tu/nam-2024-nhung-dong-luc-tang-truong-kinh-te-moi.txt'}]</t>
+          <t>[{'filename': 'e-conomy-sea-2023-kinh-te-so-viet-nam-tang-truong-nhanh-nhat-dong-nam-a.txt', 'category': 'dm_KinhTeSo', 'source': './Dataset_economy/dm_KinhTeSo/quan-tri-so/e-conomy-sea-2023-kinh-te-so-viet-nam-tang-truong-nhanh-nhat-dong-nam-a.txt'}, {'filename': 'canh-tranh-khoc-liet-tren-thi-truong-buu-chinh.txt', 'source': './Dataset_economy/dm_DoanhNghiep/nhip-cau-doanh-nghiep/canh-tranh-khoc-liet-tren-thi-truong-buu-chinh.txt', 'category': 'dm_DoanhNghiep'}, {'filename': 'dua-dich-vu-an-ninh-mang-viet-nam-ra-thi-truong-the-gioi.txt', 'source': './Dataset_economy/dm_KinhTeSo/kinh-te-so/dua-dich-vu-an-ninh-mang-viet-nam-ra-thi-truong-the-gioi.txt', 'category': 'dm_KinhTeSo'}, {'source': './Dataset_economy/dm_ThiTruong/thi-truong/doanh-nghiep-viet-nam-va-hoa-ky-con-nhieu-du-dia-hop-tac-dau-tu-kinh-doanh.txt', 'filename': 'doanh-nghiep-viet-nam-va-hoa-ky-con-nhieu-du-dia-hop-tac-dau-tu-kinh-doanh.txt', 'category': 'dm_ThiTruong'}, {'filename': 'tan-dung-xu-huong-phuc-hoi-dua-gdp-dat-muc-6-3-7.txt', 'source': './Dataset_economy/dm_TieuDiem/tan-dung-xu-huong-phuc-hoi-dua-gdp-dat-muc-6-3-7.txt', 'category': 'dm_TieuDiem'}, {'source': './Dataset_economy/dm_KinhTeSo/kinh-te-so/can-cach-tiep-can-va-giai-phap-dot-pha-thuc-hien-muc-tieu-kinh-te-so-chiem-30-gdp.txt', 'category': 'dm_KinhTeSo', 'filename': 'can-cach-tiep-can-va-giai-phap-dot-pha-thuc-hien-muc-tieu-kinh-te-so-chiem-30-gdp.txt'}, {'source': './Dataset_economy/dm_ThiTruong/thi-truong/ha-noi-bieu-duong-doanh-nghiep-doanh-nhan-xuat-sac-nam-2023.txt', 'filename': 'ha-noi-bieu-duong-doanh-nghiep-doanh-nhan-xuat-sac-nam-2023.txt', 'category': 'dm_ThiTruong'}, {'category': 'dm_DauTu', 'filename': 'viet-nam-dang-la-mot-diem-den-dau-tu-hap-dan-voi-gioi-dau-tu-quoc-te.txt', 'source': './Dataset_economy/dm_DauTu/dau-tu/viet-nam-dang-la-mot-diem-den-dau-tu-hap-dan-voi-gioi-dau-tu-quoc-te.txt'}, {'category': 'dm_DoanhNghiep', 'filename': 'nghe-an-co-them-du-an-115-trieu-usd.txt', 'source': './Dataset_economy/dm_DoanhNghiep/nhip-cau-doanh-nghiep/nghe-an-co-them-du-an-115-trieu-usd.txt'}, {'source': './Dataset_economy/dm_TieuDiem/xuat-khau-gao-tang-va-khuyen-nghi-cho-viet-nam.txt', 'category': 'dm_TieuDiem', 'filename': 'xuat-khau-gao-tang-va-khuyen-nghi-cho-viet-nam.txt'}, {'filename': 'vung-tin-hoi-nhap-va-phat-trien.txt', 'category': 'dm_TieuDiem', 'source': './Dataset_economy/dm_TieuDiem/vung-tin-hoi-nhap-va-phat-trien.txt'}, {'filename': 'kinh-te-quang-ninh-tang-truong-an-tuong.txt', 'category': 'dm_ThiTruong', 'source': './Dataset_economy/dm_ThiTruong/thi-truong/kinh-te-quang-ninh-tang-truong-an-tuong.txt'}, {'source': './Dataset_economy/dm_TieuDiem/tu-hao-va-tin-tuong-duoi-la-co-ve-vang-cua-dang-quyet-tam-xay-dung-mot-nuoc-viet-nam-ngay-cang-giau-manh-van-minh-van-hien-va-anh-hung.txt', 'category': 'dm_TieuDiem', 'filename': 'tu-hao-va-tin-tuong-duoi-la-co-ve-vang-cua-dang-quyet-tam-xay-dung-mot-nuoc-viet-nam-ngay-cang-giau-manh-van-minh-van-hien-va-anh-hung.txt'}, {'filename': 'su-bung-no-cua-genai-co-hoi-va-thach-thuc.txt', 'source': './Dataset_economy/dm_DanSinh/dan-sinh/su-bung-no-cua-genai-co-hoi-va-thach-thuc.txt', 'category': 'dm_DanSinh'}, {'source': './Dataset_economy/dm_TieuDiem/pho-truong-ban-kinh-te-trung-uong-chuyen-doi-xanh-can-tap-trung-3-tru-cot-lon.txt', 'filename': 'pho-truong-ban-kinh-te-trung-uong-chuyen-doi-xanh-can-tap-trung-3-tru-cot-lon.txt', 'category': 'dm_TieuDiem'}]</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07949790794979079</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1319444444444444</v>
+        <v>0.06185567010309278</v>
       </c>
       <c r="J6" t="n">
-        <v>0.064119797555242</v>
+        <v>0.0002749427575305562</v>
       </c>
     </row>
   </sheetData>
